--- a/DATA SMR.xlsx
+++ b/DATA SMR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaltofi.sharepoint.com/sites/AEPCoursestudentproject2024-VTTProject2/Shared Documents/VTT Project 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="985" documentId="11_0CCB2B4798F33BEAC882F9127E1C62301A9E5F3A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76989310-4784-4597-B2F0-FBE9C9A44FBC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBF4214-AD25-45EC-B372-05F3ACD149CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" state="hidden" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="510">
   <si>
     <t>Welcome on the Main Excel for our VTT Group work for the SMR technologies comparison</t>
   </si>
@@ -450,12 +450,6 @@
     <t>&lt;150</t>
   </si>
   <si>
-    <t>&lt;175</t>
-  </si>
-  <si>
-    <t>&lt;192</t>
-  </si>
-  <si>
     <t>RUTA-70</t>
   </si>
   <si>
@@ -657,9 +651,6 @@
     <t>&lt;600</t>
   </si>
   <si>
-    <t xml:space="preserve">587-633 </t>
-  </si>
-  <si>
     <t>GT-MHR</t>
   </si>
   <si>
@@ -696,12 +687,6 @@
     <t>25-87</t>
   </si>
   <si>
-    <t>490-533</t>
-  </si>
-  <si>
-    <t>795-950</t>
-  </si>
-  <si>
     <t>AHTR-100</t>
   </si>
   <si>
@@ -964,9 +949,6 @@
   </si>
   <si>
     <t>0.1 – 0.25</t>
-  </si>
-  <si>
-    <t>650-700</t>
   </si>
   <si>
     <t>5 for reactor vessel and 50 for surroundings</t>
@@ -1709,7 +1691,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2376,6 +2358,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2400,11 +2384,9 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2790,7 +2772,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2804,20 +2786,20 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45">
+    <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="6"/>
       <c r="C1" s="31">
@@ -2851,108 +2833,108 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.45">
+    <row r="2" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="72" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75" t="s">
+        <v>441</v>
+      </c>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+    </row>
+    <row r="3" spans="1:16" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73" t="s">
+      <c r="F3" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-    </row>
-    <row r="3" spans="1:16" s="5" customFormat="1" ht="57.6">
-      <c r="A3" s="32" t="s">
+      <c r="G3" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="H3" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="I3" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="J3" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="K3" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="L3" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="P3" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="H3" s="27" t="s">
+    </row>
+    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>455</v>
       </c>
-      <c r="I3" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.45">
-      <c r="A4" s="32" t="s">
-        <v>461</v>
-      </c>
       <c r="B4" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="1:16" ht="28.9">
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D5" s="7">
         <v>7</v>
@@ -2967,19 +2949,19 @@
         <v>4</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:16" ht="14.45">
+    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -2992,30 +2974,30 @@
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
     </row>
-    <row r="7" spans="1:16" ht="14.45">
+    <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F7" s="8">
         <v>850</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
@@ -3024,65 +3006,65 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45">
+    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="1:16" ht="28.9">
+    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="1:16" ht="14.45">
+    <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3096,9 +3078,9 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:16" ht="14.45">
+    <row r="11" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -3106,7 +3088,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -3114,113 +3096,113 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:16" ht="14.45">
+    <row r="12" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="14.45">
+    <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:16" ht="14.45">
+    <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="14.45">
+    <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="14.45">
+    <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45">
+    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45">
+    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45">
+    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45">
+    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" thickBot="1">
+    <row r="21" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="4"/>
       <c r="G21" s="37" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" thickBot="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="4"/>
       <c r="G22" s="40" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I22" s="41" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="4"/>
       <c r="G23" s="42" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="I23" s="44" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="4"/>
       <c r="G24" s="45"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45">
+    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45">
+    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45">
+    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="14.45">
+    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="14.45">
+    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="14.45">
+    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="4"/>
     </row>
@@ -3240,91 +3222,91 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D1">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="E1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="56" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D2" s="57"/>
       <c r="E2" s="57" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H2" s="58"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C3" s="59">
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E3" s="60">
         <f>B8*C$3*8760/1000</f>
         <v>40296000</v>
       </c>
       <c r="F3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H3" s="61" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C4" s="59"/>
       <c r="E4" s="60"/>
       <c r="H4" s="61"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
@@ -3333,42 +3315,42 @@
       <c r="G5" s="63"/>
       <c r="H5" s="65"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="55" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B7" s="55"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
-        <v>511</v>
-      </c>
-      <c r="B8" s="74">
+        <v>505</v>
+      </c>
+      <c r="B8" s="66">
         <v>100000</v>
       </c>
-      <c r="C8" s="75" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="C8" s="67" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B9" s="60">
         <f>B8*C$3*8760/1000</f>
         <v>40296000</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B10" s="54"/>
       <c r="C10" s="54" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -3384,39 +3366,39 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -3431,26 +3413,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9F640B-5EF1-49D4-AF1E-498E5DBF4C83}">
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="G2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.44140625" customWidth="1"/>
     <col min="8" max="8" width="68" customWidth="1"/>
-    <col min="9" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="16.7109375" customWidth="1"/>
+    <col min="9" max="10" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="28.9" customHeight="1">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>7</v>
       </c>
@@ -3545,7 +3527,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="49" customFormat="1" ht="15" thickBot="1">
+    <row r="2" spans="1:31" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
         <v>38</v>
       </c>
@@ -3640,7 +3622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15" thickTop="1">
+    <row r="3" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>45</v>
       </c>
@@ -3684,7 +3666,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>53</v>
       </c>
@@ -3728,7 +3710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>57</v>
       </c>
@@ -3772,7 +3754,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
         <v>63</v>
       </c>
@@ -3816,7 +3798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
         <v>67</v>
       </c>
@@ -3860,7 +3842,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>73</v>
       </c>
@@ -3904,7 +3886,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
         <v>77</v>
       </c>
@@ -3948,7 +3930,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>82</v>
       </c>
@@ -3992,7 +3974,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>86</v>
       </c>
@@ -4036,7 +4018,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="50" t="s">
         <v>89</v>
       </c>
@@ -4080,7 +4062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
         <v>93</v>
       </c>
@@ -4124,7 +4106,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
         <v>96</v>
       </c>
@@ -4168,7 +4150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="s">
         <v>100</v>
       </c>
@@ -4212,7 +4194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="50" t="s">
         <v>104</v>
       </c>
@@ -4246,28 +4228,28 @@
       <c r="M16" s="50">
         <v>2</v>
       </c>
-      <c r="N16" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="O16" s="50" t="s">
-        <v>113</v>
+      <c r="N16" s="50">
+        <v>175</v>
+      </c>
+      <c r="O16" s="50">
+        <v>193</v>
       </c>
       <c r="P16" s="50">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E17" s="50" t="s">
         <v>69</v>
@@ -4276,7 +4258,7 @@
         <v>108</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H17" s="50" t="s">
         <v>52</v>
@@ -4300,9 +4282,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
@@ -4311,7 +4293,7 @@
         <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E18" s="50" t="s">
         <v>69</v>
@@ -4320,13 +4302,13 @@
         <v>108</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H18" s="50" t="s">
         <v>52</v>
       </c>
       <c r="K18" s="50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L18" s="50">
         <v>180</v>
@@ -4344,9 +4326,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -4355,25 +4337,25 @@
         <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F19" s="50" t="s">
         <v>108</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H19" s="50" t="s">
         <v>52</v>
       </c>
       <c r="K19" s="50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L19" s="50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M19" s="50">
         <v>15</v>
@@ -4388,27 +4370,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="50" t="s">
         <v>129</v>
-      </c>
-      <c r="D20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>131</v>
       </c>
       <c r="F20" s="50" t="s">
         <v>108</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H20" s="50" t="s">
         <v>110</v>
@@ -4423,7 +4405,7 @@
         <v>9.9</v>
       </c>
       <c r="N20" s="50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O20" s="50">
         <v>310</v>
@@ -4432,9 +4414,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
@@ -4443,7 +4425,7 @@
         <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E21" s="50" t="s">
         <v>60</v>
@@ -4452,7 +4434,7 @@
         <v>108</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H21" s="50" t="s">
         <v>52</v>
@@ -4476,9 +4458,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
@@ -4487,16 +4469,16 @@
         <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F22" s="50" t="s">
         <v>108</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H22" s="50" t="s">
         <v>52</v>
@@ -4520,9 +4502,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
@@ -4531,7 +4513,7 @@
         <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E23" s="50" t="s">
         <v>69</v>
@@ -4540,7 +4522,7 @@
         <v>108</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H23" s="50" t="s">
         <v>52</v>
@@ -4564,27 +4546,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E24" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H24" s="50" t="s">
         <v>52</v>
@@ -4608,9 +4590,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
@@ -4619,16 +4601,16 @@
         <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E25" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H25" s="50" t="s">
         <v>52</v>
@@ -4652,9 +4634,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
@@ -4663,16 +4645,16 @@
         <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E26" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H26" s="50" t="s">
         <v>52</v>
@@ -4696,27 +4678,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="50" t="s">
         <v>155</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>157</v>
       </c>
       <c r="H27" s="50" t="s">
         <v>52</v>
@@ -4740,36 +4722,36 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>159</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" t="s">
-        <v>161</v>
       </c>
       <c r="E28" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F28" s="50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G28" s="50">
         <v>2022</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K28" s="50">
         <v>210</v>
       </c>
       <c r="L28" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M28" s="50">
         <v>13.25</v>
@@ -4784,36 +4766,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" t="s">
         <v>165</v>
       </c>
-      <c r="B29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" t="s">
         <v>166</v>
       </c>
-      <c r="D29" t="s">
+      <c r="G29" t="s">
         <v>167</v>
       </c>
-      <c r="E29" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" t="s">
         <v>168</v>
       </c>
-      <c r="G29" t="s">
+      <c r="L29" t="s">
         <v>169</v>
-      </c>
-      <c r="H29" t="s">
-        <v>163</v>
-      </c>
-      <c r="K29" t="s">
-        <v>170</v>
-      </c>
-      <c r="L29" t="s">
-        <v>171</v>
       </c>
       <c r="M29">
         <v>7.4</v>
@@ -4828,36 +4810,36 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
         <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M30">
         <v>3</v>
@@ -4872,42 +4854,42 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E31" t="s">
         <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G31" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" t="s">
+        <v>161</v>
+      </c>
+      <c r="K31" t="s">
+        <v>177</v>
+      </c>
+      <c r="L31" t="s">
         <v>178</v>
-      </c>
-      <c r="H31" t="s">
-        <v>163</v>
-      </c>
-      <c r="K31" t="s">
-        <v>179</v>
-      </c>
-      <c r="L31" t="s">
-        <v>180</v>
       </c>
       <c r="M31">
         <v>7</v>
       </c>
-      <c r="N31" t="s">
-        <v>181</v>
+      <c r="N31">
+        <v>600</v>
       </c>
       <c r="O31">
         <v>900</v>
@@ -4916,18 +4898,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="50" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E32" t="s">
         <v>69</v>
@@ -4936,10 +4918,10 @@
         <v>61</v>
       </c>
       <c r="G32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K32">
         <v>288</v>
@@ -4960,18 +4942,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="50" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E33" t="s">
         <v>69</v>
@@ -4980,13 +4962,13 @@
         <v>108</v>
       </c>
       <c r="G33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L33">
         <v>2400</v>
@@ -5004,18 +4986,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="50" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E34" t="s">
         <v>69</v>
@@ -5024,13 +5006,13 @@
         <v>108</v>
       </c>
       <c r="G34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K34" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L34">
         <v>215</v>
@@ -5038,40 +5020,40 @@
       <c r="M34">
         <v>4.5</v>
       </c>
-      <c r="N34" t="s">
-        <v>194</v>
-      </c>
-      <c r="O34" t="s">
-        <v>195</v>
+      <c r="N34">
+        <v>510</v>
+      </c>
+      <c r="O34">
+        <v>800</v>
       </c>
       <c r="P34">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="50" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F35" t="s">
         <v>98</v>
       </c>
       <c r="G35" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K35">
         <v>50</v>
@@ -5092,30 +5074,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F36" t="s">
         <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K36">
         <v>165</v>
@@ -5136,30 +5118,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G37" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K37">
         <v>35</v>
@@ -5180,18 +5162,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D38" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s">
         <v>60</v>
@@ -5200,10 +5182,10 @@
         <v>108</v>
       </c>
       <c r="G38" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H38" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K38">
         <v>265</v>
@@ -5224,18 +5206,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="50" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" t="s">
         <v>207</v>
-      </c>
-      <c r="D39" t="s">
-        <v>212</v>
       </c>
       <c r="E39" t="s">
         <v>60</v>
@@ -5244,10 +5226,10 @@
         <v>108</v>
       </c>
       <c r="G39" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H39" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K39">
         <v>50</v>
@@ -5268,30 +5250,30 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E40" t="s">
         <v>60</v>
       </c>
       <c r="F40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G40" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K40">
         <v>82.5</v>
@@ -5312,30 +5294,30 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E41" t="s">
         <v>60</v>
       </c>
       <c r="F41" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G41" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K41">
         <v>272</v>
@@ -5356,30 +5338,30 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D42" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E42" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F42" t="s">
         <v>108</v>
       </c>
       <c r="G42" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -5400,30 +5382,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" t="s">
         <v>159</v>
-      </c>
-      <c r="C43" t="s">
-        <v>160</v>
-      </c>
-      <c r="D43" t="s">
-        <v>161</v>
       </c>
       <c r="E43" t="s">
         <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G43" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K43">
         <v>2.5</v>
@@ -5444,30 +5426,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="50" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E44" t="s">
         <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G44" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -5488,30 +5470,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="B45" t="s">
+      <c r="G45" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="H45" s="51" t="s">
         <v>233</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="E45" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="F45" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="G45" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="H45" s="51" t="s">
-        <v>238</v>
       </c>
       <c r="K45">
         <v>450</v>
@@ -5532,30 +5514,30 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="G46" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="H46" s="51" t="s">
         <v>239</v>
-      </c>
-      <c r="B46" t="s">
-        <v>232</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="D46" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="E46" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="F46" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="G46" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="H46" s="51" t="s">
-        <v>244</v>
       </c>
       <c r="K46">
         <v>100</v>
@@ -5576,30 +5558,30 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="51" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B47" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C47" s="51" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D47" s="51" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E47" s="51" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F47" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G47" s="51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H47" s="51" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K47">
         <v>10</v>
@@ -5620,30 +5602,30 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="G48" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="H48" s="51" t="s">
         <v>249</v>
-      </c>
-      <c r="B48" t="s">
-        <v>232</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="E48" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="F48" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="G48" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="H48" s="51" t="s">
-        <v>254</v>
       </c>
       <c r="K48">
         <v>20</v>
@@ -5652,7 +5634,7 @@
         <v>60</v>
       </c>
       <c r="M48" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="N48">
         <v>250</v>
@@ -5664,30 +5646,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="51" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B49" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C49" s="51" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E49" s="51" t="s">
         <v>69</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G49" s="51" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H49" s="51" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K49">
         <v>300</v>
@@ -5696,7 +5678,7 @@
         <v>700</v>
       </c>
       <c r="M49" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N49">
         <v>420</v>
@@ -5708,30 +5690,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="51" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B50" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G50" s="51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H50" s="51" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K50">
         <v>200</v>
@@ -5752,30 +5734,30 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="51" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B51" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C51" s="51" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E51" s="51" t="s">
         <v>69</v>
       </c>
       <c r="F51" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G51" s="51" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H51" s="51" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K51">
         <v>100</v>
@@ -5784,7 +5766,7 @@
         <v>280</v>
       </c>
       <c r="M51" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N51">
         <v>340</v>
@@ -5796,30 +5778,30 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="51" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D52" s="51" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E52" s="51" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F52" s="51" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G52" s="51" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H52" s="51" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K52">
         <v>55</v>
@@ -5840,80 +5822,80 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="B53" t="s">
+        <v>271</v>
+      </c>
+      <c r="C53" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" t="s">
+        <v>274</v>
+      </c>
+      <c r="F53" t="s">
+        <v>243</v>
+      </c>
+      <c r="G53" t="s">
         <v>275</v>
       </c>
-      <c r="B53" t="s">
+      <c r="H53" t="s">
         <v>276</v>
       </c>
-      <c r="C53" t="s">
+      <c r="K53" t="s">
         <v>277</v>
-      </c>
-      <c r="D53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E53" t="s">
-        <v>279</v>
-      </c>
-      <c r="F53" t="s">
-        <v>248</v>
-      </c>
-      <c r="G53" t="s">
-        <v>280</v>
-      </c>
-      <c r="H53" t="s">
-        <v>281</v>
-      </c>
-      <c r="K53" t="s">
-        <v>282</v>
       </c>
       <c r="L53">
         <v>100</v>
       </c>
       <c r="M53" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N53">
         <v>600</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53">
+        <v>675</v>
+      </c>
+      <c r="P53" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" t="s">
+        <v>271</v>
+      </c>
+      <c r="C54" t="s">
+        <v>281</v>
+      </c>
+      <c r="D54" t="s">
+        <v>282</v>
+      </c>
+      <c r="E54" t="s">
+        <v>283</v>
+      </c>
+      <c r="F54" t="s">
         <v>284</v>
       </c>
-      <c r="P53" t="s">
+      <c r="G54" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54" s="50" t="s">
+      <c r="H54" t="s">
         <v>286</v>
       </c>
-      <c r="B54" t="s">
-        <v>276</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="K54" t="s">
         <v>287</v>
       </c>
-      <c r="D54" t="s">
+      <c r="L54" t="s">
         <v>288</v>
-      </c>
-      <c r="E54" t="s">
-        <v>289</v>
-      </c>
-      <c r="F54" t="s">
-        <v>290</v>
-      </c>
-      <c r="G54" t="s">
-        <v>291</v>
-      </c>
-      <c r="H54" t="s">
-        <v>292</v>
-      </c>
-      <c r="K54" t="s">
-        <v>293</v>
-      </c>
-      <c r="L54" t="s">
-        <v>294</v>
       </c>
       <c r="N54">
         <v>650</v>
@@ -5922,42 +5904,42 @@
         <v>750</v>
       </c>
       <c r="P54" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="B55" t="s">
+        <v>271</v>
+      </c>
+      <c r="C55" t="s">
+        <v>291</v>
+      </c>
+      <c r="D55" t="s">
+        <v>292</v>
+      </c>
+      <c r="E55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F55" t="s">
+        <v>284</v>
+      </c>
+      <c r="G55" t="s">
+        <v>294</v>
+      </c>
+      <c r="H55" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="50" t="s">
+      <c r="K55" t="s">
         <v>296</v>
       </c>
-      <c r="B55" t="s">
-        <v>276</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="L55" t="s">
         <v>297</v>
       </c>
-      <c r="D55" t="s">
+      <c r="M55" t="s">
         <v>298</v>
-      </c>
-      <c r="E55" t="s">
-        <v>299</v>
-      </c>
-      <c r="F55" t="s">
-        <v>290</v>
-      </c>
-      <c r="G55" t="s">
-        <v>300</v>
-      </c>
-      <c r="H55" t="s">
-        <v>301</v>
-      </c>
-      <c r="K55" t="s">
-        <v>302</v>
-      </c>
-      <c r="L55" t="s">
-        <v>303</v>
-      </c>
-      <c r="M55" t="s">
-        <v>304</v>
       </c>
       <c r="N55">
         <v>500</v>
@@ -5969,39 +5951,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="B56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C56" t="s">
+        <v>291</v>
+      </c>
+      <c r="D56" t="s">
+        <v>300</v>
+      </c>
+      <c r="E56" t="s">
+        <v>301</v>
+      </c>
+      <c r="F56" t="s">
+        <v>302</v>
+      </c>
+      <c r="G56" t="s">
+        <v>303</v>
+      </c>
+      <c r="H56" t="s">
+        <v>304</v>
+      </c>
+      <c r="K56" t="s">
         <v>305</v>
-      </c>
-      <c r="B56" t="s">
-        <v>276</v>
-      </c>
-      <c r="C56" t="s">
-        <v>297</v>
-      </c>
-      <c r="D56" t="s">
-        <v>306</v>
-      </c>
-      <c r="E56" t="s">
-        <v>307</v>
-      </c>
-      <c r="F56" t="s">
-        <v>308</v>
-      </c>
-      <c r="G56" t="s">
-        <v>309</v>
-      </c>
-      <c r="H56" t="s">
-        <v>310</v>
-      </c>
-      <c r="K56" t="s">
-        <v>311</v>
       </c>
       <c r="L56">
         <v>440</v>
       </c>
       <c r="M56" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="N56">
         <v>620</v>
@@ -6013,30 +5995,30 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="50" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C57" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D57" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E57" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F57" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G57" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H57" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K57">
         <v>300</v>
@@ -6057,30 +6039,30 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="50" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C58" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D58" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E58" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F58" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H58" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K58">
         <v>250</v>
@@ -6095,30 +6077,30 @@
         <v>650</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="50" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B59" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C59" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D59" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E59" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F59" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G59" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H59" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K59">
         <v>250</v>
@@ -6127,7 +6109,7 @@
         <v>557</v>
       </c>
       <c r="M59" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="N59">
         <v>560</v>
@@ -6139,30 +6121,30 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B60" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C60" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D60" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E60" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F60" t="s">
+        <v>318</v>
+      </c>
+      <c r="G60" t="s">
         <v>324</v>
       </c>
-      <c r="G60" t="s">
-        <v>330</v>
-      </c>
       <c r="H60" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K60">
         <v>200</v>
@@ -6183,30 +6165,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="50" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B61" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C61" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D61" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E61" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F61" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G61" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H61" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K61">
         <v>168</v>
@@ -6215,7 +6197,7 @@
         <v>400</v>
       </c>
       <c r="M61" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="N61">
         <v>650</v>
@@ -6227,30 +6209,30 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="50" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C62" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D62" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E62" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F62" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G62" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H62" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K62">
         <v>140</v>
@@ -6259,7 +6241,7 @@
         <v>320</v>
       </c>
       <c r="M62" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="N62">
         <v>550</v>
@@ -6268,33 +6250,33 @@
         <v>650</v>
       </c>
       <c r="P62" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="50" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B63" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C63" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D63" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E63" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F63" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G63" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H63" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K63">
         <v>100</v>
@@ -6303,7 +6285,7 @@
         <v>250</v>
       </c>
       <c r="M63" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="N63">
         <v>600</v>
@@ -6312,33 +6294,33 @@
         <v>670</v>
       </c>
       <c r="P63" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="50" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B64" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C64" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D64" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E64" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F64" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G64" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H64" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K64">
         <v>100</v>
@@ -6359,30 +6341,30 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="B65" t="s">
+        <v>271</v>
+      </c>
+      <c r="C65" t="s">
+        <v>351</v>
+      </c>
+      <c r="D65" t="s">
+        <v>352</v>
+      </c>
+      <c r="E65" t="s">
+        <v>353</v>
+      </c>
+      <c r="F65" t="s">
+        <v>354</v>
+      </c>
+      <c r="G65" t="s">
+        <v>355</v>
+      </c>
+      <c r="H65" t="s">
         <v>356</v>
-      </c>
-      <c r="B65" t="s">
-        <v>276</v>
-      </c>
-      <c r="C65" t="s">
-        <v>357</v>
-      </c>
-      <c r="D65" t="s">
-        <v>358</v>
-      </c>
-      <c r="E65" t="s">
-        <v>359</v>
-      </c>
-      <c r="F65" t="s">
-        <v>360</v>
-      </c>
-      <c r="G65" t="s">
-        <v>361</v>
-      </c>
-      <c r="H65" t="s">
-        <v>362</v>
       </c>
       <c r="K65">
         <v>16</v>
@@ -6423,7 +6405,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6437,33 +6419,33 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="66" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6481,33 +6463,33 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6525,33 +6507,33 @@
       <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6570,18 +6552,18 @@
       <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
-    <col min="7" max="7" width="47.5703125" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="7" max="7" width="47.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -6589,103 +6571,103 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="70" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="70"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="68" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="68" t="s">
-        <v>371</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>372</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>373</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="68"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E4" s="2">
         <v>200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E5" s="3">
         <v>3333</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
@@ -6701,33 +6683,33 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -6739,201 +6721,201 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="68" t="s">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="70"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="68" t="s">
-        <v>404</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>405</v>
-      </c>
-      <c r="E11" s="68" t="s">
-        <v>406</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="68"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.9">
-      <c r="A13" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="D15" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E15" s="70" t="s">
         <v>416</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F15" s="70" t="s">
         <v>417</v>
       </c>
-      <c r="F14" s="2" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="70"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="68" t="s">
-        <v>419</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="68" t="s">
-        <v>420</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>421</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>422</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="68"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="14" t="s">
-        <v>424</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A18" s="69" t="s">
-        <v>429</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="71" t="s">
+        <v>423</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="15" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A19" s="69"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="71"/>
       <c r="B19" s="24"/>
       <c r="C19" s="18" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A20" s="69"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="71"/>
       <c r="B20" s="24"/>
       <c r="C20" s="18" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A21" s="69"/>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="71"/>
       <c r="B21" s="24"/>
       <c r="C21" s="18" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -6965,19 +6947,19 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="28.9" customHeight="1">
+    <row r="1" spans="1:31" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>7</v>
       </c>
@@ -7072,7 +7054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="49" customFormat="1" ht="15" thickBot="1">
+    <row r="2" spans="1:31" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
         <v>38</v>
       </c>
@@ -7167,3148 +7149,3148 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="13.9" customHeight="1" thickTop="1">
+    <row r="3" spans="1:31" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M4" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P5" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P6" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P7" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>73</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="50" t="s">
         <v>89</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
         <v>93</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="s">
         <v>100</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="50" t="s">
         <v>104</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H17" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P17" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L18" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N18" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P18" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N19" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O19" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P19" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G20" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M20" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N20" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P20" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="I21" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="53" t="s">
-        <v>443</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="I21" t="s">
-        <v>136</v>
-      </c>
       <c r="K21" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N21" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O21" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P21" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N22" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="I23" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="M23" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="N23" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="O23" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="P23" s="35" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="53" t="s">
-        <v>443</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="I23" t="s">
-        <v>136</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="L23" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="M23" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="N23" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="O23" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="P23" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="72">
-      <c r="A24" s="50" t="s">
-        <v>143</v>
-      </c>
       <c r="B24" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L24" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M24" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N24" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M25" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N25" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O25" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P25" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E26" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L26" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M26" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N26" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O26" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P26" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F27" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H27" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N27" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P27" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F28" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H28" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M28" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N28" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O28" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P28" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E29" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F29" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H29" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M29" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N29" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O29" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P29" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F30" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G30" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N30" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P30" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L31" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M31" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N31" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P31" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="H32" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="I32" t="s">
+        <v>134</v>
+      </c>
+      <c r="K32" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="L32" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="M32" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="N32" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="O32" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="P32" s="35" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="53" t="s">
-        <v>443</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="H32" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="I32" t="s">
-        <v>136</v>
-      </c>
-      <c r="K32" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="L32" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="M32" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="N32" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="O32" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="P32" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="72">
-      <c r="A33" s="50" t="s">
-        <v>185</v>
-      </c>
       <c r="B33" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E33" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F33" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G33" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H33" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K33" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M33" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N33" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O33" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P33" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="50" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E34" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F34" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G34" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H34" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L34" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M34" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N34" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P34" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="50" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E35" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H35" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L35" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M35" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N35" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P35" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E36" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F36" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G36" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H36" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L36" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M36" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N36" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O36" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P36" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F37" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G37" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H37" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L37" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M37" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N37" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O37" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P37" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="H38" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="I38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K38" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="L38" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="M38" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="N38" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="O38" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="P38" s="35" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="B38" s="53" t="s">
-        <v>443</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="E38" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="F38" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="G38" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="H38" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="I38" t="s">
-        <v>136</v>
-      </c>
-      <c r="K38" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="L38" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="M38" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="N38" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="O38" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="P38" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="72">
-      <c r="A39" s="50" t="s">
-        <v>211</v>
-      </c>
       <c r="B39" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H39" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K39" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L39" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M39" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N39" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P39" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E40" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F40" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G40" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H40" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L40" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M40" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N40" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P40" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E41" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F41" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H41" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K41" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M41" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N41" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O41" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P41" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B42" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E42" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F42" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G42" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H42" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L42" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M42" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N42" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O42" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P42" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B43" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H43" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L43" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M43" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N43" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O43" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P43" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="50" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E44" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F44" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G44" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H44" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L44" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M44" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N44" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O44" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P44" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="51" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E45" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F45" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G45" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H45" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K45" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L45" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M45" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N45" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O45" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P45" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="51" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B46" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E46" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F46" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G46" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H46" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K46" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L46" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M46" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O46" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P46" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="51" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B47" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E47" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F47" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G47" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H47" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K47" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L47" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M47" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N47" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O47" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P47" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="51" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E48" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F48" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G48" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H48" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K48" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L48" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M48" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N48" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O48" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P48" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="51" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E49" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F49" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G49" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H49" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K49" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L49" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M49" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N49" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O49" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P49" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="51" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B50" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E50" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F50" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G50" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H50" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K50" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L50" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M50" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N50" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O50" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P50" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="51" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E51" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K51" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L51" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M51" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N51" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O51" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P51" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="51" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E52" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F52" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G52" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H52" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K52" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L52" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M52" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N52" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O52" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P52" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="50" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E53" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F53" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G53" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H53" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K53" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L53" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M53" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N53" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O53" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P53" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="50" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E54" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F54" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G54" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H54" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K54" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L54" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M54" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N54" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O54" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P54" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="50" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E55" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F55" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H55" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K55" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L55" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M55" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N55" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O55" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P55" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="50" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B56" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E56" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F56" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G56" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H56" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K56" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L56" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M56" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N56" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O56" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P56" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A57" s="50" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B57" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E57" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F57" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G57" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H57" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K57" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L57" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M57" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N57" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O57" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P57" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="50" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B58" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E58" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F58" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G58" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H58" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L58" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M58" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N58" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O58" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P58" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="50" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B59" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G59" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H59" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L59" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M59" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N59" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O59" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P59" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B60" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E60" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F60" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G60" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H60" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L60" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M60" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N60" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O60" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P60" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="50" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B61" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E61" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F61" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G61" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H61" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I61" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K61" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L61" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M61" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N61" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O61" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P61" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="50" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B62" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E62" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F62" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G62" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H62" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K62" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L62" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M62" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N62" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O62" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P62" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="D63" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="E63" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="F63" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="G63" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="H63" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="I63" t="s">
+        <v>134</v>
+      </c>
+      <c r="K63" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="L63" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="M63" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="N63" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="O63" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="P63" s="35" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A64" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="B63" s="53" t="s">
-        <v>443</v>
-      </c>
-      <c r="C63" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="E63" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="F63" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="G63" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="H63" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="I63" t="s">
-        <v>136</v>
-      </c>
-      <c r="K63" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="L63" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="M63" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="N63" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="O63" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="P63" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="72">
-      <c r="A64" s="50" t="s">
-        <v>352</v>
-      </c>
       <c r="B64" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C64" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E64" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F64" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G64" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H64" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K64" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L64" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M64" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N64" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O64" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P64" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="72">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A65" s="50" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B65" s="53" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C65" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D65" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E65" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F65" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G65" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H65" s="52" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K65" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L65" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M65" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N65" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="O65" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P65" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B66" s="50"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B67" s="50"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B68" s="50"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B69" s="50"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B70" s="50"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B71" s="50"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B72" s="50"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B73" s="50"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B74" s="50"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B75" s="50"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B76" s="50"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B77" s="50"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B78" s="50"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B79" s="50"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B80" s="50"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="50"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="50"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="50"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="50"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="50"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="50"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="50"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="50"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="50"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="50"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="50"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="50"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="50"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="50"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="50"/>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="50"/>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="50"/>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="50"/>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="50"/>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="50"/>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="50"/>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="50"/>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="50"/>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="50"/>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="50"/>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="50"/>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="50"/>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="50"/>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="50"/>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="50"/>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="50"/>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="50"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="50"/>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="50"/>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="50"/>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="50"/>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="50"/>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="50"/>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="50"/>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="50"/>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="50"/>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="50"/>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="50"/>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="50"/>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="50"/>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="50"/>
     </row>
   </sheetData>
@@ -10455,12 +10437,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10642,23 +10625,46 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3162FD9B-11EE-402C-9DDF-408FEDD00CFF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3D178F-0972-40B6-A2AC-EA36D3A03FFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EFF826-2EF8-4A64-A822-C0246D0F06D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EFF826-2EF8-4A64-A822-C0246D0F06D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3D178F-0972-40B6-A2AC-EA36D3A03FFA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3162FD9B-11EE-402C-9DDF-408FEDD00CFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DATA SMR.xlsx
+++ b/DATA SMR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBF4214-AD25-45EC-B372-05F3ACD149CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7795D83D-E9A0-479A-BE0C-91738F450AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" state="hidden" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="493">
   <si>
     <t>Welcome on the Main Excel for our VTT Group work for the SMR technologies comparison</t>
   </si>
@@ -447,9 +447,6 @@
     <t>Heavy Water (D2O)</t>
   </si>
   <si>
-    <t>&lt;150</t>
-  </si>
-  <si>
     <t>RUTA-70</t>
   </si>
   <si>
@@ -471,9 +468,6 @@
     <t>T0+11 (First Start)</t>
   </si>
   <si>
-    <t>45-50</t>
-  </si>
-  <si>
     <t>NUWARD</t>
   </si>
   <si>
@@ -486,12 +480,6 @@
     <t>2030 (First Concrete)</t>
   </si>
   <si>
-    <t>2 * 170</t>
-  </si>
-  <si>
-    <t>2*540</t>
-  </si>
-  <si>
     <t>CANDU SMR</t>
   </si>
   <si>
@@ -600,9 +588,6 @@
     <t>Helium/Graphite</t>
   </si>
   <si>
-    <t>2*250</t>
-  </si>
-  <si>
     <t>Starcore</t>
   </si>
   <si>
@@ -618,12 +603,6 @@
     <t>2026 (Deployment/start of construction)</t>
   </si>
   <si>
-    <t>14/20/60</t>
-  </si>
-  <si>
-    <t>35/50/150</t>
-  </si>
-  <si>
     <t>Jimmy</t>
   </si>
   <si>
@@ -633,9 +612,6 @@
     <t>2026 (Fuel Loading &amp; Test)</t>
   </si>
   <si>
-    <t>10 to 20</t>
-  </si>
-  <si>
     <t>GTHTR300</t>
   </si>
   <si>
@@ -645,12 +621,6 @@
     <t>2040 (Operation &amp; Demo)</t>
   </si>
   <si>
-    <t>100 - 300</t>
-  </si>
-  <si>
-    <t>&lt;600</t>
-  </si>
-  <si>
     <t>GT-MHR</t>
   </si>
   <si>
@@ -672,9 +642,6 @@
     <t>2020 (Dev of basic Design sol)</t>
   </si>
   <si>
-    <t>4*205.5</t>
-  </si>
-  <si>
     <t>MHR-100</t>
   </si>
   <si>
@@ -684,9 +651,6 @@
     <t>2020 (Basis for non elec nuclear)</t>
   </si>
   <si>
-    <t>25-87</t>
-  </si>
-  <si>
     <t>AHTR-100</t>
   </si>
   <si>
@@ -945,9 +909,6 @@
     <t xml:space="preserve">Fuel salt/heavy water </t>
   </si>
   <si>
-    <t>20 or NaN</t>
-  </si>
-  <si>
     <t>0.1 – 0.25</t>
   </si>
   <si>
@@ -975,12 +936,6 @@
     <t>NaCl-XClv-YClz-UCl3/4-PuCl3-FPClx fuel salt / None</t>
   </si>
   <si>
-    <t>50 / 200 / 400 /1200</t>
-  </si>
-  <si>
-    <t>125 / 500 / 1000 / 3000</t>
-  </si>
-  <si>
     <t>14~40 components</t>
   </si>
   <si>
@@ -1002,12 +957,6 @@
     <t>Molten salt/graphite (no salt-graphite contact)</t>
   </si>
   <si>
-    <t xml:space="preserve">40 – 120 </t>
-  </si>
-  <si>
-    <t>100-300</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 bar max at shutdown – 8 bar max under operation </t>
   </si>
   <si>
@@ -1027,9 +976,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fluoride Fuel Salt/graphite </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2 × 195 (two operating core units)</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;0.4 (hydrostatic) </t>
@@ -1685,6 +1631,9 @@
   </si>
   <si>
     <t>MWt</t>
+  </si>
+  <si>
+    <t>Thermal Output</t>
   </si>
 </sst>
 </file>
@@ -2835,13 +2784,13 @@
     </row>
     <row r="2" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="D2" s="73"/>
       <c r="E2" s="73"/>
@@ -2849,7 +2798,7 @@
       <c r="G2" s="73"/>
       <c r="H2" s="74"/>
       <c r="I2" s="75" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="J2" s="75"/>
       <c r="K2" s="75"/>
@@ -2857,69 +2806,69 @@
     </row>
     <row r="3" spans="1:16" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
@@ -2928,13 +2877,13 @@
     </row>
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="D5" s="7">
         <v>7</v>
@@ -2949,7 +2898,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -2958,10 +2907,10 @@
     </row>
     <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -2976,28 +2925,28 @@
     </row>
     <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="F7" s="8">
         <v>850</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
@@ -3012,22 +2961,22 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
@@ -3036,26 +2985,26 @@
     </row>
     <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
@@ -3064,7 +3013,7 @@
     </row>
     <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3080,7 +3029,7 @@
     </row>
     <row r="11" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -3088,7 +3037,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -3108,13 +3057,13 @@
     </row>
     <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="B15" s="4"/>
     </row>
@@ -3142,39 +3091,39 @@
       <c r="A21" s="12"/>
       <c r="B21" s="4"/>
       <c r="G21" s="37" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="4"/>
       <c r="G22" s="40" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="I22" s="41" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="4"/>
       <c r="G23" s="42" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="I23" s="44" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -3237,65 +3186,65 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="D1">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="E1" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="56" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="D2" s="57"/>
       <c r="E2" s="57" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="C3" s="59">
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="E3" s="60">
         <f>B8*C$3*8760/1000</f>
         <v>40296000</v>
       </c>
       <c r="F3" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="H3" s="61" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="C4" s="59"/>
       <c r="E4" s="60"/>
@@ -3303,10 +3252,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
@@ -3317,40 +3266,40 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="55" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="B7" s="55"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="B8" s="66">
         <v>100000</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="B9" s="60">
         <f>B8*C$3*8760/1000</f>
         <v>40296000</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="B10" s="54"/>
       <c r="C10" s="54" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -3413,9 +3362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9F640B-5EF1-49D4-AF1E-498E5DBF4C83}">
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3464,10 +3413,10 @@
         <v>16</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>17</v>
+        <v>443</v>
       </c>
       <c r="L1" s="48" t="s">
-        <v>18</v>
+        <v>492</v>
       </c>
       <c r="M1" s="48" t="s">
         <v>19</v>
@@ -4222,8 +4171,8 @@
       <c r="K16" s="50">
         <v>0</v>
       </c>
-      <c r="L16" s="50" t="s">
-        <v>111</v>
+      <c r="L16" s="50">
+        <v>150</v>
       </c>
       <c r="M16" s="50">
         <v>2</v>
@@ -4240,16 +4189,16 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
         <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>114</v>
       </c>
       <c r="E17" s="50" t="s">
         <v>69</v>
@@ -4258,7 +4207,7 @@
         <v>108</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H17" s="50" t="s">
         <v>52</v>
@@ -4284,7 +4233,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
@@ -4293,7 +4242,7 @@
         <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="50" t="s">
         <v>69</v>
@@ -4302,13 +4251,13 @@
         <v>108</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H18" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="50" t="s">
-        <v>119</v>
+      <c r="K18" s="50">
+        <v>50</v>
       </c>
       <c r="L18" s="50">
         <v>180</v>
@@ -4328,7 +4277,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -4337,25 +4286,25 @@
         <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F19" s="50" t="s">
         <v>108</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H19" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="50" t="s">
-        <v>125</v>
+      <c r="K19" s="50">
+        <v>170</v>
+      </c>
+      <c r="L19" s="50">
+        <v>540</v>
       </c>
       <c r="M19" s="50">
         <v>15</v>
@@ -4372,25 +4321,25 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F20" s="50" t="s">
         <v>108</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H20" s="50" t="s">
         <v>110</v>
@@ -4405,7 +4354,7 @@
         <v>9.9</v>
       </c>
       <c r="N20" s="50" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O20" s="50">
         <v>310</v>
@@ -4416,7 +4365,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
@@ -4425,7 +4374,7 @@
         <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E21" s="50" t="s">
         <v>60</v>
@@ -4434,7 +4383,7 @@
         <v>108</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H21" s="50" t="s">
         <v>52</v>
@@ -4460,7 +4409,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
@@ -4469,16 +4418,16 @@
         <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F22" s="50" t="s">
         <v>108</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H22" s="50" t="s">
         <v>52</v>
@@ -4504,7 +4453,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
@@ -4513,7 +4462,7 @@
         <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E23" s="50" t="s">
         <v>69</v>
@@ -4522,7 +4471,7 @@
         <v>108</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H23" s="50" t="s">
         <v>52</v>
@@ -4548,25 +4497,25 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E24" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H24" s="50" t="s">
         <v>52</v>
@@ -4592,7 +4541,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
@@ -4601,16 +4550,16 @@
         <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E25" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F25" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="50" t="s">
         <v>143</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>147</v>
       </c>
       <c r="H25" s="50" t="s">
         <v>52</v>
@@ -4636,7 +4585,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
@@ -4645,16 +4594,16 @@
         <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E26" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H26" s="50" t="s">
         <v>52</v>
@@ -4680,25 +4629,25 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H27" s="50" t="s">
         <v>52</v>
@@ -4724,34 +4673,34 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E28" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F28" s="50" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G28" s="50">
         <v>2022</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K28" s="50">
         <v>210</v>
       </c>
-      <c r="L28" s="50" t="s">
-        <v>162</v>
+      <c r="L28" s="50">
+        <v>250</v>
       </c>
       <c r="M28" s="50">
         <v>13.25</v>
@@ -4768,34 +4717,34 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" t="s">
         <v>157</v>
       </c>
-      <c r="C29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" t="s">
-        <v>167</v>
-      </c>
-      <c r="H29" t="s">
-        <v>161</v>
-      </c>
-      <c r="K29" t="s">
-        <v>168</v>
-      </c>
-      <c r="L29" t="s">
-        <v>169</v>
+      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
       </c>
       <c r="M29">
         <v>7.4</v>
@@ -4812,34 +4761,34 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" t="s">
         <v>164</v>
       </c>
-      <c r="D30" t="s">
-        <v>171</v>
-      </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
         <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H30" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="L30" t="s">
-        <v>173</v>
+      <c r="L30">
+        <v>15</v>
       </c>
       <c r="M30">
         <v>3</v>
@@ -4856,34 +4805,34 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="50" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E31" t="s">
         <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G31" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H31" t="s">
-        <v>161</v>
-      </c>
-      <c r="K31" t="s">
-        <v>177</v>
-      </c>
-      <c r="L31" t="s">
-        <v>178</v>
+        <v>157</v>
+      </c>
+      <c r="K31">
+        <v>300</v>
+      </c>
+      <c r="L31">
+        <v>600</v>
       </c>
       <c r="M31">
         <v>7</v>
@@ -4900,16 +4849,16 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="50" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E32" t="s">
         <v>69</v>
@@ -4918,10 +4867,10 @@
         <v>61</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K32">
         <v>288</v>
@@ -4944,16 +4893,16 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="50" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s">
         <v>69</v>
@@ -4962,13 +4911,13 @@
         <v>108</v>
       </c>
       <c r="G33" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H33" t="s">
-        <v>161</v>
-      </c>
-      <c r="K33" t="s">
-        <v>186</v>
+        <v>157</v>
+      </c>
+      <c r="K33">
+        <v>205</v>
       </c>
       <c r="L33">
         <v>2400</v>
@@ -4988,16 +4937,16 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="50" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D34" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s">
         <v>69</v>
@@ -5006,13 +4955,13 @@
         <v>108</v>
       </c>
       <c r="G34" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H34" t="s">
-        <v>161</v>
-      </c>
-      <c r="K34" t="s">
-        <v>190</v>
+        <v>157</v>
+      </c>
+      <c r="K34">
+        <v>87</v>
       </c>
       <c r="L34">
         <v>215</v>
@@ -5032,28 +4981,28 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="50" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F35" t="s">
         <v>98</v>
       </c>
       <c r="G35" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K35">
         <v>50</v>
@@ -5076,28 +5025,28 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D36" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F36" t="s">
         <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H36" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K36">
         <v>165</v>
@@ -5120,28 +5069,28 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" t="s">
+        <v>188</v>
+      </c>
+      <c r="H37" t="s">
         <v>157</v>
-      </c>
-      <c r="C37" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" t="s">
-        <v>199</v>
-      </c>
-      <c r="E37" t="s">
-        <v>193</v>
-      </c>
-      <c r="F37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G37" t="s">
-        <v>200</v>
-      </c>
-      <c r="H37" t="s">
-        <v>161</v>
       </c>
       <c r="K37">
         <v>35</v>
@@ -5164,16 +5113,16 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E38" t="s">
         <v>60</v>
@@ -5182,10 +5131,10 @@
         <v>108</v>
       </c>
       <c r="G38" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="H38" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="K38">
         <v>265</v>
@@ -5208,16 +5157,16 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="50" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D39" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E39" t="s">
         <v>60</v>
@@ -5226,10 +5175,10 @@
         <v>108</v>
       </c>
       <c r="G39" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="H39" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="K39">
         <v>50</v>
@@ -5252,31 +5201,31 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D40" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E40" t="s">
         <v>60</v>
       </c>
       <c r="F40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G40" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="H40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K40">
-        <v>82.5</v>
+        <v>82</v>
       </c>
       <c r="L40">
         <v>200</v>
@@ -5296,28 +5245,28 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E41" t="s">
         <v>60</v>
       </c>
       <c r="F41" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G41" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K41">
         <v>272</v>
@@ -5340,28 +5289,28 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D42" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E42" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F42" t="s">
         <v>108</v>
       </c>
       <c r="G42" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H42" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -5384,31 +5333,31 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E43" t="s">
         <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G43" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="H43" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K43">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L43">
         <v>10</v>
@@ -5428,28 +5377,28 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="50" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E44" t="s">
         <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G44" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H44" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -5472,28 +5421,28 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="51" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E45" s="51" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F45" s="51" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G45" s="51" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="H45" s="51" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K45">
         <v>450</v>
@@ -5516,28 +5465,28 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="51" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" s="51" t="s">
         <v>227</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="D46" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="E46" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="F46" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="G46" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="H46" s="51" t="s">
-        <v>239</v>
       </c>
       <c r="K46">
         <v>100</v>
@@ -5560,28 +5509,28 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="51" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B47" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="F47" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="51" t="s">
         <v>227</v>
-      </c>
-      <c r="C47" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="D47" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="E47" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="F47" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="G47" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H47" s="51" t="s">
-        <v>239</v>
       </c>
       <c r="K47">
         <v>10</v>
@@ -5604,28 +5553,28 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="51" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B48" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E48" s="51" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F48" s="51" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G48" s="51" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="H48" s="51" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="K48">
         <v>20</v>
@@ -5634,7 +5583,7 @@
         <v>60</v>
       </c>
       <c r="M48" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="N48">
         <v>250</v>
@@ -5648,28 +5597,28 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="51" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C49" s="51" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E49" s="51" t="s">
         <v>69</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G49" s="51" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H49" s="51" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="K49">
         <v>300</v>
@@ -5678,7 +5627,7 @@
         <v>700</v>
       </c>
       <c r="M49" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="N49">
         <v>420</v>
@@ -5692,28 +5641,28 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="51" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B50" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G50" s="51" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H50" s="51" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="K50">
         <v>200</v>
@@ -5736,28 +5685,28 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="51" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B51" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C51" s="51" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E51" s="51" t="s">
         <v>69</v>
       </c>
       <c r="F51" s="51" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G51" s="51" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H51" s="51" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="K51">
         <v>100</v>
@@ -5766,7 +5715,7 @@
         <v>280</v>
       </c>
       <c r="M51" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="N51">
         <v>340</v>
@@ -5780,28 +5729,28 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="51" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B52" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D52" s="51" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E52" s="51" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F52" s="51" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G52" s="51" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="H52" s="51" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="K52">
         <v>55</v>
@@ -5824,37 +5773,37 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="50" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B53" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C53" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D53" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E53" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="F53" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G53" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H53" t="s">
-        <v>276</v>
-      </c>
-      <c r="K53" t="s">
-        <v>277</v>
+        <v>264</v>
+      </c>
+      <c r="K53">
+        <v>20</v>
       </c>
       <c r="L53">
         <v>100</v>
       </c>
       <c r="M53" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="N53">
         <v>600</v>
@@ -5863,39 +5812,39 @@
         <v>675</v>
       </c>
       <c r="P53" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="50" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B54" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" t="s">
+        <v>269</v>
+      </c>
+      <c r="E54" t="s">
+        <v>270</v>
+      </c>
+      <c r="F54" t="s">
         <v>271</v>
       </c>
-      <c r="C54" t="s">
-        <v>281</v>
-      </c>
-      <c r="D54" t="s">
-        <v>282</v>
-      </c>
-      <c r="E54" t="s">
-        <v>283</v>
-      </c>
-      <c r="F54" t="s">
-        <v>284</v>
-      </c>
       <c r="G54" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H54" t="s">
-        <v>286</v>
-      </c>
-      <c r="K54" t="s">
-        <v>287</v>
-      </c>
-      <c r="L54" t="s">
-        <v>288</v>
+        <v>273</v>
+      </c>
+      <c r="K54">
+        <v>200</v>
+      </c>
+      <c r="L54">
+        <v>500</v>
       </c>
       <c r="N54">
         <v>650</v>
@@ -5904,42 +5853,42 @@
         <v>750</v>
       </c>
       <c r="P54" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="50" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B55" t="s">
+        <v>259</v>
+      </c>
+      <c r="C55" t="s">
+        <v>276</v>
+      </c>
+      <c r="D55" t="s">
+        <v>277</v>
+      </c>
+      <c r="E55" t="s">
+        <v>278</v>
+      </c>
+      <c r="F55" t="s">
         <v>271</v>
       </c>
-      <c r="C55" t="s">
-        <v>291</v>
-      </c>
-      <c r="D55" t="s">
-        <v>292</v>
-      </c>
-      <c r="E55" t="s">
-        <v>293</v>
-      </c>
-      <c r="F55" t="s">
-        <v>284</v>
-      </c>
       <c r="G55" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H55" t="s">
-        <v>295</v>
-      </c>
-      <c r="K55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L55" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+      <c r="K55">
+        <v>100</v>
+      </c>
+      <c r="L55">
+        <v>200</v>
       </c>
       <c r="M55" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="N55">
         <v>500</v>
@@ -5953,37 +5902,37 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="50" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C56" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D56" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="E56" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="F56" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="G56" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="H56" t="s">
-        <v>304</v>
-      </c>
-      <c r="K56" t="s">
-        <v>305</v>
+        <v>287</v>
+      </c>
+      <c r="K56">
+        <v>185</v>
       </c>
       <c r="L56">
         <v>440</v>
       </c>
       <c r="M56" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="N56">
         <v>620</v>
@@ -5997,28 +5946,28 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="50" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B57" t="s">
+        <v>259</v>
+      </c>
+      <c r="C57" t="s">
+        <v>290</v>
+      </c>
+      <c r="D57" t="s">
+        <v>291</v>
+      </c>
+      <c r="E57" t="s">
+        <v>284</v>
+      </c>
+      <c r="F57" t="s">
         <v>271</v>
       </c>
-      <c r="C57" t="s">
-        <v>308</v>
-      </c>
-      <c r="D57" t="s">
-        <v>309</v>
-      </c>
-      <c r="E57" t="s">
-        <v>301</v>
-      </c>
-      <c r="F57" t="s">
-        <v>284</v>
-      </c>
       <c r="G57" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="H57" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="K57">
         <v>300</v>
@@ -6041,28 +5990,28 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="50" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s">
+        <v>259</v>
+      </c>
+      <c r="C58" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" t="s">
+        <v>295</v>
+      </c>
+      <c r="E58" t="s">
+        <v>270</v>
+      </c>
+      <c r="F58" t="s">
         <v>271</v>
       </c>
-      <c r="C58" t="s">
-        <v>291</v>
-      </c>
-      <c r="D58" t="s">
-        <v>313</v>
-      </c>
-      <c r="E58" t="s">
-        <v>283</v>
-      </c>
-      <c r="F58" t="s">
-        <v>284</v>
-      </c>
       <c r="G58" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H58" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="K58">
         <v>250</v>
@@ -6079,28 +6028,28 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="50" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B59" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C59" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D59" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="E59" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="F59" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G59" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="H59" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="K59">
         <v>250</v>
@@ -6109,7 +6058,7 @@
         <v>557</v>
       </c>
       <c r="M59" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="N59">
         <v>560</v>
@@ -6123,28 +6072,28 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="50" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B60" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C60" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D60" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E60" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F60" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G60" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="H60" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="K60">
         <v>200</v>
@@ -6167,28 +6116,28 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="50" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B61" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C61" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D61" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="E61" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F61" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G61" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="H61" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="K61">
         <v>168</v>
@@ -6197,7 +6146,7 @@
         <v>400</v>
       </c>
       <c r="M61" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="N61">
         <v>650</v>
@@ -6211,28 +6160,28 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="50" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="B62" t="s">
+        <v>259</v>
+      </c>
+      <c r="C62" t="s">
+        <v>316</v>
+      </c>
+      <c r="D62" t="s">
+        <v>317</v>
+      </c>
+      <c r="E62" t="s">
+        <v>270</v>
+      </c>
+      <c r="F62" t="s">
         <v>271</v>
       </c>
-      <c r="C62" t="s">
-        <v>334</v>
-      </c>
-      <c r="D62" t="s">
-        <v>335</v>
-      </c>
-      <c r="E62" t="s">
-        <v>283</v>
-      </c>
-      <c r="F62" t="s">
-        <v>284</v>
-      </c>
       <c r="G62" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="H62" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="K62">
         <v>140</v>
@@ -6241,7 +6190,7 @@
         <v>320</v>
       </c>
       <c r="M62" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="N62">
         <v>550</v>
@@ -6250,33 +6199,33 @@
         <v>650</v>
       </c>
       <c r="P62" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="50" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B63" t="s">
+        <v>259</v>
+      </c>
+      <c r="C63" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" t="s">
+        <v>323</v>
+      </c>
+      <c r="E63" t="s">
+        <v>262</v>
+      </c>
+      <c r="F63" t="s">
         <v>271</v>
       </c>
-      <c r="C63" t="s">
-        <v>291</v>
-      </c>
-      <c r="D63" t="s">
-        <v>341</v>
-      </c>
-      <c r="E63" t="s">
-        <v>274</v>
-      </c>
-      <c r="F63" t="s">
-        <v>284</v>
-      </c>
       <c r="G63" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="H63" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="K63">
         <v>100</v>
@@ -6285,7 +6234,7 @@
         <v>250</v>
       </c>
       <c r="M63" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="N63">
         <v>600</v>
@@ -6294,33 +6243,33 @@
         <v>670</v>
       </c>
       <c r="P63" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="50" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="B64" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="D64" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="E64" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="F64" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G64" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="H64" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="K64">
         <v>100</v>
@@ -6343,28 +6292,28 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="50" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="B65" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C65" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="D65" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="E65" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="F65" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="G65" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="H65" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="K65">
         <v>16</v>
@@ -6423,7 +6372,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -6467,7 +6416,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -6511,7 +6460,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -6571,34 +6520,34 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="70" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6608,66 +6557,66 @@
       <c r="D3" s="70"/>
       <c r="E3" s="70"/>
       <c r="F3" s="2" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="E4" s="2">
         <v>200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="E5" s="3">
         <v>3333</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
@@ -6685,31 +6634,31 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -6723,19 +6672,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
@@ -6743,20 +6692,20 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="70" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="70" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6766,61 +6715,61 @@
       <c r="D12" s="70"/>
       <c r="E12" s="70"/>
       <c r="F12" s="2" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="70" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="70" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="F15" s="70" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6833,89 +6782,89 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="71" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="15" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="71"/>
       <c r="B19" s="24"/>
       <c r="C19" s="18" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="71"/>
       <c r="B20" s="24"/>
       <c r="C20" s="18" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="71"/>
       <c r="B21" s="24"/>
       <c r="C21" s="18" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -7154,46 +7103,46 @@
         <v>45</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="72" x14ac:dyDescent="0.3">
@@ -7201,46 +7150,46 @@
         <v>53</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M4" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="72" x14ac:dyDescent="0.3">
@@ -7248,46 +7197,46 @@
         <v>57</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P5" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="72" x14ac:dyDescent="0.3">
@@ -7295,46 +7244,46 @@
         <v>63</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P6" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="72" x14ac:dyDescent="0.3">
@@ -7342,46 +7291,46 @@
         <v>67</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P7" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="72" x14ac:dyDescent="0.3">
@@ -7389,46 +7338,46 @@
         <v>73</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="72" x14ac:dyDescent="0.3">
@@ -7436,46 +7385,46 @@
         <v>77</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="72" x14ac:dyDescent="0.3">
@@ -7483,46 +7432,46 @@
         <v>82</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="72" x14ac:dyDescent="0.3">
@@ -7530,46 +7479,46 @@
         <v>86</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="72" x14ac:dyDescent="0.3">
@@ -7577,46 +7526,46 @@
         <v>89</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="72" x14ac:dyDescent="0.3">
@@ -7624,46 +7573,46 @@
         <v>93</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="72" x14ac:dyDescent="0.3">
@@ -7671,46 +7620,46 @@
         <v>96</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="72" x14ac:dyDescent="0.3">
@@ -7718,46 +7667,46 @@
         <v>100</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="72" x14ac:dyDescent="0.3">
@@ -7765,2349 +7714,2349 @@
         <v>104</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H17" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P17" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L18" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N18" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P18" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N19" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O19" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P19" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G20" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M20" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N20" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P20" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N21" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O21" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P21" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N22" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L23" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M23" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N23" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L24" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M24" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N24" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M25" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N25" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O25" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P25" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E26" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L26" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M26" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N26" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O26" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P26" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F27" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H27" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N27" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P27" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F28" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H28" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I28" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M28" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N28" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O28" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P28" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E29" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F29" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H29" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M29" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N29" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O29" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P29" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F30" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G30" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N30" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P30" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="50" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I31" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L31" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M31" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N31" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P31" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="50" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E32" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F32" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G32" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H32" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K32" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M32" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N32" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P32" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="50" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E33" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F33" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G33" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H33" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K33" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M33" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N33" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O33" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P33" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="50" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E34" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F34" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G34" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H34" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I34" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L34" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M34" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N34" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P34" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="50" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E35" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H35" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L35" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M35" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N35" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P35" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E36" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F36" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G36" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H36" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I36" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L36" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M36" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N36" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O36" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P36" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F37" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G37" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H37" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L37" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M37" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N37" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O37" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P37" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E38" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F38" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G38" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H38" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I38" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K38" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L38" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M38" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N38" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O38" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P38" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="50" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B39" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H39" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K39" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L39" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M39" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N39" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P39" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E40" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F40" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G40" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H40" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L40" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M40" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N40" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P40" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E41" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F41" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H41" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K41" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M41" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N41" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O41" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P41" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B42" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E42" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F42" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G42" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H42" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L42" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M42" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N42" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O42" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P42" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B43" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H43" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L43" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M43" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N43" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O43" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P43" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="50" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E44" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F44" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G44" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H44" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I44" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L44" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M44" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N44" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O44" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P44" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="51" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E45" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F45" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G45" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H45" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I45" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K45" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L45" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M45" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N45" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O45" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P45" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="51" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B46" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E46" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F46" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G46" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H46" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I46" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K46" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L46" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M46" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O46" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P46" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="51" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B47" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E47" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F47" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G47" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H47" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I47" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K47" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L47" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M47" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N47" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O47" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P47" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="51" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E48" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F48" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G48" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H48" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I48" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K48" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L48" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M48" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N48" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O48" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P48" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="51" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E49" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F49" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G49" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H49" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I49" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K49" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L49" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M49" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N49" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O49" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P49" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="51" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B50" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E50" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F50" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G50" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H50" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I50" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K50" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L50" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M50" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N50" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O50" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P50" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="51" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E51" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I51" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K51" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L51" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M51" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N51" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O51" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P51" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="51" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E52" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F52" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G52" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H52" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I52" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K52" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L52" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M52" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N52" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O52" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P52" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="50" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E53" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F53" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G53" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H53" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I53" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K53" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L53" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M53" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N53" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O53" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P53" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="50" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E54" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F54" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G54" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H54" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I54" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K54" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L54" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M54" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N54" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O54" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P54" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="50" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E55" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F55" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H55" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I55" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K55" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L55" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M55" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N55" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O55" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P55" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="50" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B56" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E56" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F56" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G56" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H56" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I56" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K56" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L56" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M56" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N56" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O56" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P56" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A57" s="50" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B57" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E57" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F57" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G57" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H57" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I57" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K57" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L57" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M57" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N57" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O57" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P57" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="50" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B58" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E58" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F58" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G58" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H58" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I58" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L58" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M58" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N58" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O58" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P58" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="50" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B59" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G59" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H59" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L59" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M59" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N59" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O59" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P59" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="50" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B60" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E60" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F60" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G60" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H60" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I60" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L60" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M60" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N60" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O60" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P60" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="50" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B61" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E61" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F61" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G61" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H61" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I61" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K61" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L61" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M61" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N61" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O61" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P61" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="50" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="B62" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E62" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F62" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G62" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H62" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I62" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K62" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L62" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M62" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N62" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O62" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P62" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="50" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B63" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E63" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F63" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G63" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H63" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I63" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K63" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L63" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M63" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N63" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O63" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P63" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="50" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="B64" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C64" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E64" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F64" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G64" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H64" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I64" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K64" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L64" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M64" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N64" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O64" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P64" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A65" s="50" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="B65" s="53" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C65" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D65" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E65" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F65" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G65" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H65" s="52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="I65" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K65" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="L65" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M65" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="N65" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="O65" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P65" s="35" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -10437,16 +10386,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF98156A4E08ED42B22DA6C86624442E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="11ba5f1833b47c39d11f9a0fc9ca5ad0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56528f00-8daf-4285-8b2f-184ebce7f2e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b814f87d70368c36b985d9f62a71433" ns2:_="">
     <xsd:import namespace="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
@@ -10624,7 +10563,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10633,17 +10572,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3D178F-0972-40B6-A2AC-EA36D3A03FFA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EFF826-2EF8-4A64-A822-C0246D0F06D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10661,10 +10600,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3162FD9B-11EE-402C-9DDF-408FEDD00CFF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3D178F-0972-40B6-A2AC-EA36D3A03FFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DATA SMR.xlsx
+++ b/DATA SMR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7795D83D-E9A0-479A-BE0C-91738F450AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91563113-566D-469D-9989-FDCD59ABF0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="495">
   <si>
     <t>Welcome on the Main Excel for our VTT Group work for the SMR technologies comparison</t>
   </si>
@@ -1634,6 +1634,12 @@
   </si>
   <si>
     <t>Thermal Output</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Ecological impact</t>
   </si>
 </sst>
 </file>
@@ -3362,9 +3368,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9F640B-5EF1-49D4-AF1E-498E5DBF4C83}">
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3434,7 +3440,7 @@
         <v>23</v>
       </c>
       <c r="R1" s="48" t="s">
-        <v>24</v>
+        <v>493</v>
       </c>
       <c r="S1" s="48" t="s">
         <v>25</v>
@@ -3443,7 +3449,7 @@
         <v>26</v>
       </c>
       <c r="U1" s="48" t="s">
-        <v>27</v>
+        <v>494</v>
       </c>
       <c r="V1" s="48" t="s">
         <v>28</v>
@@ -3614,6 +3620,51 @@
       <c r="P3" s="50">
         <v>60</v>
       </c>
+      <c r="Q3" s="50">
+        <v>1</v>
+      </c>
+      <c r="R3" s="50">
+        <v>1</v>
+      </c>
+      <c r="S3" s="50">
+        <v>1</v>
+      </c>
+      <c r="T3" s="50">
+        <v>1</v>
+      </c>
+      <c r="U3" s="50">
+        <v>1</v>
+      </c>
+      <c r="V3" s="50">
+        <v>1</v>
+      </c>
+      <c r="W3" s="50">
+        <v>1</v>
+      </c>
+      <c r="X3" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="50">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
@@ -3658,6 +3709,51 @@
       <c r="P4" s="50">
         <v>40</v>
       </c>
+      <c r="Q4" s="50">
+        <v>1</v>
+      </c>
+      <c r="R4" s="50">
+        <v>1</v>
+      </c>
+      <c r="S4" s="50">
+        <v>1</v>
+      </c>
+      <c r="T4" s="50">
+        <v>1</v>
+      </c>
+      <c r="U4" s="50">
+        <v>1</v>
+      </c>
+      <c r="V4" s="50">
+        <v>1</v>
+      </c>
+      <c r="W4" s="50">
+        <v>1</v>
+      </c>
+      <c r="X4" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="50">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
@@ -3702,6 +3798,51 @@
       <c r="P5" s="50">
         <v>80</v>
       </c>
+      <c r="Q5" s="50">
+        <v>1</v>
+      </c>
+      <c r="R5" s="50">
+        <v>1</v>
+      </c>
+      <c r="S5" s="50">
+        <v>1</v>
+      </c>
+      <c r="T5" s="50">
+        <v>1</v>
+      </c>
+      <c r="U5" s="50">
+        <v>1</v>
+      </c>
+      <c r="V5" s="50">
+        <v>1</v>
+      </c>
+      <c r="W5" s="50">
+        <v>1</v>
+      </c>
+      <c r="X5" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="50">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
@@ -3746,6 +3887,51 @@
       <c r="P6" s="50">
         <v>60</v>
       </c>
+      <c r="Q6" s="50">
+        <v>1</v>
+      </c>
+      <c r="R6" s="50">
+        <v>1</v>
+      </c>
+      <c r="S6" s="50">
+        <v>1</v>
+      </c>
+      <c r="T6" s="50">
+        <v>1</v>
+      </c>
+      <c r="U6" s="50">
+        <v>1</v>
+      </c>
+      <c r="V6" s="50">
+        <v>1</v>
+      </c>
+      <c r="W6" s="50">
+        <v>1</v>
+      </c>
+      <c r="X6" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="50">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
@@ -3790,6 +3976,51 @@
       <c r="P7" s="50">
         <v>60</v>
       </c>
+      <c r="Q7" s="50">
+        <v>1</v>
+      </c>
+      <c r="R7" s="50">
+        <v>1</v>
+      </c>
+      <c r="S7" s="50">
+        <v>1</v>
+      </c>
+      <c r="T7" s="50">
+        <v>1</v>
+      </c>
+      <c r="U7" s="50">
+        <v>1</v>
+      </c>
+      <c r="V7" s="50">
+        <v>1</v>
+      </c>
+      <c r="W7" s="50">
+        <v>1</v>
+      </c>
+      <c r="X7" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="50">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
@@ -3834,6 +4065,51 @@
       <c r="P8" s="50">
         <v>60</v>
       </c>
+      <c r="Q8" s="50">
+        <v>1</v>
+      </c>
+      <c r="R8" s="50">
+        <v>1</v>
+      </c>
+      <c r="S8" s="50">
+        <v>1</v>
+      </c>
+      <c r="T8" s="50">
+        <v>1</v>
+      </c>
+      <c r="U8" s="50">
+        <v>1</v>
+      </c>
+      <c r="V8" s="50">
+        <v>1</v>
+      </c>
+      <c r="W8" s="50">
+        <v>1</v>
+      </c>
+      <c r="X8" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="50">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
@@ -3878,6 +4154,51 @@
       <c r="P9" s="50">
         <v>60</v>
       </c>
+      <c r="Q9" s="50">
+        <v>1</v>
+      </c>
+      <c r="R9" s="50">
+        <v>1</v>
+      </c>
+      <c r="S9" s="50">
+        <v>1</v>
+      </c>
+      <c r="T9" s="50">
+        <v>1</v>
+      </c>
+      <c r="U9" s="50">
+        <v>1</v>
+      </c>
+      <c r="V9" s="50">
+        <v>1</v>
+      </c>
+      <c r="W9" s="50">
+        <v>1</v>
+      </c>
+      <c r="X9" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="50">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
@@ -3922,6 +4243,51 @@
       <c r="P10" s="50">
         <v>60</v>
       </c>
+      <c r="Q10" s="50">
+        <v>1</v>
+      </c>
+      <c r="R10" s="50">
+        <v>1</v>
+      </c>
+      <c r="S10" s="50">
+        <v>1</v>
+      </c>
+      <c r="T10" s="50">
+        <v>1</v>
+      </c>
+      <c r="U10" s="50">
+        <v>1</v>
+      </c>
+      <c r="V10" s="50">
+        <v>1</v>
+      </c>
+      <c r="W10" s="50">
+        <v>1</v>
+      </c>
+      <c r="X10" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="50">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
@@ -3966,6 +4332,51 @@
       <c r="P11" s="50">
         <v>60</v>
       </c>
+      <c r="Q11" s="50">
+        <v>1</v>
+      </c>
+      <c r="R11" s="50">
+        <v>1</v>
+      </c>
+      <c r="S11" s="50">
+        <v>1</v>
+      </c>
+      <c r="T11" s="50">
+        <v>1</v>
+      </c>
+      <c r="U11" s="50">
+        <v>1</v>
+      </c>
+      <c r="V11" s="50">
+        <v>1</v>
+      </c>
+      <c r="W11" s="50">
+        <v>1</v>
+      </c>
+      <c r="X11" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="50">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="50" t="s">
@@ -4010,6 +4421,51 @@
       <c r="P12" s="50">
         <v>60</v>
       </c>
+      <c r="Q12" s="50">
+        <v>1</v>
+      </c>
+      <c r="R12" s="50">
+        <v>1</v>
+      </c>
+      <c r="S12" s="50">
+        <v>1</v>
+      </c>
+      <c r="T12" s="50">
+        <v>1</v>
+      </c>
+      <c r="U12" s="50">
+        <v>1</v>
+      </c>
+      <c r="V12" s="50">
+        <v>1</v>
+      </c>
+      <c r="W12" s="50">
+        <v>1</v>
+      </c>
+      <c r="X12" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="50">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
@@ -4054,6 +4510,51 @@
       <c r="P13" s="50">
         <v>40</v>
       </c>
+      <c r="Q13" s="50">
+        <v>1</v>
+      </c>
+      <c r="R13" s="50">
+        <v>1</v>
+      </c>
+      <c r="S13" s="50">
+        <v>1</v>
+      </c>
+      <c r="T13" s="50">
+        <v>1</v>
+      </c>
+      <c r="U13" s="50">
+        <v>1</v>
+      </c>
+      <c r="V13" s="50">
+        <v>1</v>
+      </c>
+      <c r="W13" s="50">
+        <v>1</v>
+      </c>
+      <c r="X13" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="50">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
@@ -4098,6 +4599,51 @@
       <c r="P14" s="50">
         <v>60</v>
       </c>
+      <c r="Q14" s="50">
+        <v>1</v>
+      </c>
+      <c r="R14" s="50">
+        <v>1</v>
+      </c>
+      <c r="S14" s="50">
+        <v>1</v>
+      </c>
+      <c r="T14" s="50">
+        <v>1</v>
+      </c>
+      <c r="U14" s="50">
+        <v>1</v>
+      </c>
+      <c r="V14" s="50">
+        <v>1</v>
+      </c>
+      <c r="W14" s="50">
+        <v>1</v>
+      </c>
+      <c r="X14" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="50">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="s">
@@ -4142,6 +4688,51 @@
       <c r="P15" s="50">
         <v>60</v>
       </c>
+      <c r="Q15" s="50">
+        <v>1</v>
+      </c>
+      <c r="R15" s="50">
+        <v>1</v>
+      </c>
+      <c r="S15" s="50">
+        <v>1</v>
+      </c>
+      <c r="T15" s="50">
+        <v>1</v>
+      </c>
+      <c r="U15" s="50">
+        <v>1</v>
+      </c>
+      <c r="V15" s="50">
+        <v>1</v>
+      </c>
+      <c r="W15" s="50">
+        <v>1</v>
+      </c>
+      <c r="X15" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="50">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="50" t="s">
@@ -4186,8 +4777,53 @@
       <c r="P16" s="50">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="50">
+        <v>1</v>
+      </c>
+      <c r="R16" s="50">
+        <v>1</v>
+      </c>
+      <c r="S16" s="50">
+        <v>1</v>
+      </c>
+      <c r="T16" s="50">
+        <v>1</v>
+      </c>
+      <c r="U16" s="50">
+        <v>1</v>
+      </c>
+      <c r="V16" s="50">
+        <v>1</v>
+      </c>
+      <c r="W16" s="50">
+        <v>1</v>
+      </c>
+      <c r="X16" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
         <v>111</v>
       </c>
@@ -4230,8 +4866,53 @@
       <c r="P17" s="50">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="50">
+        <v>1</v>
+      </c>
+      <c r="R17" s="50">
+        <v>1</v>
+      </c>
+      <c r="S17" s="50">
+        <v>1</v>
+      </c>
+      <c r="T17" s="50">
+        <v>1</v>
+      </c>
+      <c r="U17" s="50">
+        <v>1</v>
+      </c>
+      <c r="V17" s="50">
+        <v>1</v>
+      </c>
+      <c r="W17" s="50">
+        <v>1</v>
+      </c>
+      <c r="X17" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
         <v>115</v>
       </c>
@@ -4274,8 +4955,53 @@
       <c r="P18" s="50">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="50">
+        <v>1</v>
+      </c>
+      <c r="R18" s="50">
+        <v>1</v>
+      </c>
+      <c r="S18" s="50">
+        <v>1</v>
+      </c>
+      <c r="T18" s="50">
+        <v>1</v>
+      </c>
+      <c r="U18" s="50">
+        <v>1</v>
+      </c>
+      <c r="V18" s="50">
+        <v>1</v>
+      </c>
+      <c r="W18" s="50">
+        <v>1</v>
+      </c>
+      <c r="X18" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
         <v>118</v>
       </c>
@@ -4318,8 +5044,53 @@
       <c r="P19" s="50">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="50">
+        <v>1</v>
+      </c>
+      <c r="R19" s="50">
+        <v>1</v>
+      </c>
+      <c r="S19" s="50">
+        <v>1</v>
+      </c>
+      <c r="T19" s="50">
+        <v>1</v>
+      </c>
+      <c r="U19" s="50">
+        <v>1</v>
+      </c>
+      <c r="V19" s="50">
+        <v>1</v>
+      </c>
+      <c r="W19" s="50">
+        <v>1</v>
+      </c>
+      <c r="X19" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
         <v>122</v>
       </c>
@@ -4362,8 +5133,53 @@
       <c r="P20" s="50">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="50">
+        <v>1</v>
+      </c>
+      <c r="R20" s="50">
+        <v>1</v>
+      </c>
+      <c r="S20" s="50">
+        <v>1</v>
+      </c>
+      <c r="T20" s="50">
+        <v>1</v>
+      </c>
+      <c r="U20" s="50">
+        <v>1</v>
+      </c>
+      <c r="V20" s="50">
+        <v>1</v>
+      </c>
+      <c r="W20" s="50">
+        <v>1</v>
+      </c>
+      <c r="X20" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
         <v>128</v>
       </c>
@@ -4406,8 +5222,53 @@
       <c r="P21" s="50">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21" s="50">
+        <v>1</v>
+      </c>
+      <c r="R21" s="50">
+        <v>1</v>
+      </c>
+      <c r="S21" s="50">
+        <v>1</v>
+      </c>
+      <c r="T21" s="50">
+        <v>1</v>
+      </c>
+      <c r="U21" s="50">
+        <v>1</v>
+      </c>
+      <c r="V21" s="50">
+        <v>1</v>
+      </c>
+      <c r="W21" s="50">
+        <v>1</v>
+      </c>
+      <c r="X21" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
         <v>131</v>
       </c>
@@ -4450,8 +5311,53 @@
       <c r="P22" s="50">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22" s="50">
+        <v>1</v>
+      </c>
+      <c r="R22" s="50">
+        <v>1</v>
+      </c>
+      <c r="S22" s="50">
+        <v>1</v>
+      </c>
+      <c r="T22" s="50">
+        <v>1</v>
+      </c>
+      <c r="U22" s="50">
+        <v>1</v>
+      </c>
+      <c r="V22" s="50">
+        <v>1</v>
+      </c>
+      <c r="W22" s="50">
+        <v>1</v>
+      </c>
+      <c r="X22" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
         <v>135</v>
       </c>
@@ -4494,8 +5400,53 @@
       <c r="P23" s="50">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23" s="50">
+        <v>1</v>
+      </c>
+      <c r="R23" s="50">
+        <v>1</v>
+      </c>
+      <c r="S23" s="50">
+        <v>1</v>
+      </c>
+      <c r="T23" s="50">
+        <v>1</v>
+      </c>
+      <c r="U23" s="50">
+        <v>1</v>
+      </c>
+      <c r="V23" s="50">
+        <v>1</v>
+      </c>
+      <c r="W23" s="50">
+        <v>1</v>
+      </c>
+      <c r="X23" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
         <v>137</v>
       </c>
@@ -4538,8 +5489,53 @@
       <c r="P24" s="50">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q24" s="50">
+        <v>1</v>
+      </c>
+      <c r="R24" s="50">
+        <v>1</v>
+      </c>
+      <c r="S24" s="50">
+        <v>1</v>
+      </c>
+      <c r="T24" s="50">
+        <v>1</v>
+      </c>
+      <c r="U24" s="50">
+        <v>1</v>
+      </c>
+      <c r="V24" s="50">
+        <v>1</v>
+      </c>
+      <c r="W24" s="50">
+        <v>1</v>
+      </c>
+      <c r="X24" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="s">
         <v>141</v>
       </c>
@@ -4582,8 +5578,53 @@
       <c r="P25" s="50">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q25" s="50">
+        <v>1</v>
+      </c>
+      <c r="R25" s="50">
+        <v>1</v>
+      </c>
+      <c r="S25" s="50">
+        <v>1</v>
+      </c>
+      <c r="T25" s="50">
+        <v>1</v>
+      </c>
+      <c r="U25" s="50">
+        <v>1</v>
+      </c>
+      <c r="V25" s="50">
+        <v>1</v>
+      </c>
+      <c r="W25" s="50">
+        <v>1</v>
+      </c>
+      <c r="X25" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
         <v>144</v>
       </c>
@@ -4626,8 +5667,53 @@
       <c r="P26" s="50">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q26" s="50">
+        <v>1</v>
+      </c>
+      <c r="R26" s="50">
+        <v>1</v>
+      </c>
+      <c r="S26" s="50">
+        <v>1</v>
+      </c>
+      <c r="T26" s="50">
+        <v>1</v>
+      </c>
+      <c r="U26" s="50">
+        <v>1</v>
+      </c>
+      <c r="V26" s="50">
+        <v>1</v>
+      </c>
+      <c r="W26" s="50">
+        <v>1</v>
+      </c>
+      <c r="X26" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
         <v>147</v>
       </c>
@@ -4670,8 +5756,53 @@
       <c r="P27" s="50">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q27" s="50">
+        <v>1</v>
+      </c>
+      <c r="R27" s="50">
+        <v>1</v>
+      </c>
+      <c r="S27" s="50">
+        <v>1</v>
+      </c>
+      <c r="T27" s="50">
+        <v>1</v>
+      </c>
+      <c r="U27" s="50">
+        <v>1</v>
+      </c>
+      <c r="V27" s="50">
+        <v>1</v>
+      </c>
+      <c r="W27" s="50">
+        <v>1</v>
+      </c>
+      <c r="X27" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
         <v>152</v>
       </c>
@@ -4714,8 +5845,53 @@
       <c r="P28" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q28" s="50">
+        <v>1</v>
+      </c>
+      <c r="R28" s="50">
+        <v>1</v>
+      </c>
+      <c r="S28" s="50">
+        <v>1</v>
+      </c>
+      <c r="T28" s="50">
+        <v>1</v>
+      </c>
+      <c r="U28" s="50">
+        <v>1</v>
+      </c>
+      <c r="V28" s="50">
+        <v>1</v>
+      </c>
+      <c r="W28" s="50">
+        <v>1</v>
+      </c>
+      <c r="X28" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="s">
         <v>158</v>
       </c>
@@ -4758,8 +5934,53 @@
       <c r="P29">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q29" s="50">
+        <v>1</v>
+      </c>
+      <c r="R29" s="50">
+        <v>1</v>
+      </c>
+      <c r="S29" s="50">
+        <v>1</v>
+      </c>
+      <c r="T29" s="50">
+        <v>1</v>
+      </c>
+      <c r="U29" s="50">
+        <v>1</v>
+      </c>
+      <c r="V29" s="50">
+        <v>1</v>
+      </c>
+      <c r="W29" s="50">
+        <v>1</v>
+      </c>
+      <c r="X29" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
         <v>163</v>
       </c>
@@ -4802,8 +6023,53 @@
       <c r="P30">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q30" s="50">
+        <v>1</v>
+      </c>
+      <c r="R30" s="50">
+        <v>1</v>
+      </c>
+      <c r="S30" s="50">
+        <v>1</v>
+      </c>
+      <c r="T30" s="50">
+        <v>1</v>
+      </c>
+      <c r="U30" s="50">
+        <v>1</v>
+      </c>
+      <c r="V30" s="50">
+        <v>1</v>
+      </c>
+      <c r="W30" s="50">
+        <v>1</v>
+      </c>
+      <c r="X30" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="50" t="s">
         <v>166</v>
       </c>
@@ -4846,8 +6112,53 @@
       <c r="P31">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q31" s="50">
+        <v>1</v>
+      </c>
+      <c r="R31" s="50">
+        <v>1</v>
+      </c>
+      <c r="S31" s="50">
+        <v>1</v>
+      </c>
+      <c r="T31" s="50">
+        <v>1</v>
+      </c>
+      <c r="U31" s="50">
+        <v>1</v>
+      </c>
+      <c r="V31" s="50">
+        <v>1</v>
+      </c>
+      <c r="W31" s="50">
+        <v>1</v>
+      </c>
+      <c r="X31" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="50" t="s">
         <v>169</v>
       </c>
@@ -4890,8 +6201,53 @@
       <c r="P32">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q32" s="50">
+        <v>1</v>
+      </c>
+      <c r="R32" s="50">
+        <v>1</v>
+      </c>
+      <c r="S32" s="50">
+        <v>1</v>
+      </c>
+      <c r="T32" s="50">
+        <v>1</v>
+      </c>
+      <c r="U32" s="50">
+        <v>1</v>
+      </c>
+      <c r="V32" s="50">
+        <v>1</v>
+      </c>
+      <c r="W32" s="50">
+        <v>1</v>
+      </c>
+      <c r="X32" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="50" t="s">
         <v>172</v>
       </c>
@@ -4934,8 +6290,53 @@
       <c r="P33">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q33" s="50">
+        <v>1</v>
+      </c>
+      <c r="R33" s="50">
+        <v>1</v>
+      </c>
+      <c r="S33" s="50">
+        <v>1</v>
+      </c>
+      <c r="T33" s="50">
+        <v>1</v>
+      </c>
+      <c r="U33" s="50">
+        <v>1</v>
+      </c>
+      <c r="V33" s="50">
+        <v>1</v>
+      </c>
+      <c r="W33" s="50">
+        <v>1</v>
+      </c>
+      <c r="X33" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="50" t="s">
         <v>176</v>
       </c>
@@ -4978,8 +6379,53 @@
       <c r="P34">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q34" s="50">
+        <v>1</v>
+      </c>
+      <c r="R34" s="50">
+        <v>1</v>
+      </c>
+      <c r="S34" s="50">
+        <v>1</v>
+      </c>
+      <c r="T34" s="50">
+        <v>1</v>
+      </c>
+      <c r="U34" s="50">
+        <v>1</v>
+      </c>
+      <c r="V34" s="50">
+        <v>1</v>
+      </c>
+      <c r="W34" s="50">
+        <v>1</v>
+      </c>
+      <c r="X34" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="50" t="s">
         <v>179</v>
       </c>
@@ -5022,8 +6468,53 @@
       <c r="P35">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q35" s="50">
+        <v>1</v>
+      </c>
+      <c r="R35" s="50">
+        <v>1</v>
+      </c>
+      <c r="S35" s="50">
+        <v>1</v>
+      </c>
+      <c r="T35" s="50">
+        <v>1</v>
+      </c>
+      <c r="U35" s="50">
+        <v>1</v>
+      </c>
+      <c r="V35" s="50">
+        <v>1</v>
+      </c>
+      <c r="W35" s="50">
+        <v>1</v>
+      </c>
+      <c r="X35" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
         <v>183</v>
       </c>
@@ -5066,8 +6557,53 @@
       <c r="P36">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q36" s="50">
+        <v>1</v>
+      </c>
+      <c r="R36" s="50">
+        <v>1</v>
+      </c>
+      <c r="S36" s="50">
+        <v>1</v>
+      </c>
+      <c r="T36" s="50">
+        <v>1</v>
+      </c>
+      <c r="U36" s="50">
+        <v>1</v>
+      </c>
+      <c r="V36" s="50">
+        <v>1</v>
+      </c>
+      <c r="W36" s="50">
+        <v>1</v>
+      </c>
+      <c r="X36" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
         <v>186</v>
       </c>
@@ -5110,8 +6646,53 @@
       <c r="P37">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q37" s="50">
+        <v>1</v>
+      </c>
+      <c r="R37" s="50">
+        <v>1</v>
+      </c>
+      <c r="S37" s="50">
+        <v>1</v>
+      </c>
+      <c r="T37" s="50">
+        <v>1</v>
+      </c>
+      <c r="U37" s="50">
+        <v>1</v>
+      </c>
+      <c r="V37" s="50">
+        <v>1</v>
+      </c>
+      <c r="W37" s="50">
+        <v>1</v>
+      </c>
+      <c r="X37" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
         <v>189</v>
       </c>
@@ -5154,8 +6735,53 @@
       <c r="P38">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q38" s="50">
+        <v>1</v>
+      </c>
+      <c r="R38" s="50">
+        <v>1</v>
+      </c>
+      <c r="S38" s="50">
+        <v>1</v>
+      </c>
+      <c r="T38" s="50">
+        <v>1</v>
+      </c>
+      <c r="U38" s="50">
+        <v>1</v>
+      </c>
+      <c r="V38" s="50">
+        <v>1</v>
+      </c>
+      <c r="W38" s="50">
+        <v>1</v>
+      </c>
+      <c r="X38" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="50" t="s">
         <v>194</v>
       </c>
@@ -5198,8 +6824,53 @@
       <c r="P39">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q39" s="50">
+        <v>1</v>
+      </c>
+      <c r="R39" s="50">
+        <v>1</v>
+      </c>
+      <c r="S39" s="50">
+        <v>1</v>
+      </c>
+      <c r="T39" s="50">
+        <v>1</v>
+      </c>
+      <c r="U39" s="50">
+        <v>1</v>
+      </c>
+      <c r="V39" s="50">
+        <v>1</v>
+      </c>
+      <c r="W39" s="50">
+        <v>1</v>
+      </c>
+      <c r="X39" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
         <v>197</v>
       </c>
@@ -5242,8 +6913,53 @@
       <c r="P40">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q40" s="50">
+        <v>1</v>
+      </c>
+      <c r="R40" s="50">
+        <v>1</v>
+      </c>
+      <c r="S40" s="50">
+        <v>1</v>
+      </c>
+      <c r="T40" s="50">
+        <v>1</v>
+      </c>
+      <c r="U40" s="50">
+        <v>1</v>
+      </c>
+      <c r="V40" s="50">
+        <v>1</v>
+      </c>
+      <c r="W40" s="50">
+        <v>1</v>
+      </c>
+      <c r="X40" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
         <v>200</v>
       </c>
@@ -5286,8 +7002,53 @@
       <c r="P41">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q41" s="50">
+        <v>1</v>
+      </c>
+      <c r="R41" s="50">
+        <v>1</v>
+      </c>
+      <c r="S41" s="50">
+        <v>1</v>
+      </c>
+      <c r="T41" s="50">
+        <v>1</v>
+      </c>
+      <c r="U41" s="50">
+        <v>1</v>
+      </c>
+      <c r="V41" s="50">
+        <v>1</v>
+      </c>
+      <c r="W41" s="50">
+        <v>1</v>
+      </c>
+      <c r="X41" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
         <v>204</v>
       </c>
@@ -5330,8 +7091,53 @@
       <c r="P42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q42" s="50">
+        <v>1</v>
+      </c>
+      <c r="R42" s="50">
+        <v>1</v>
+      </c>
+      <c r="S42" s="50">
+        <v>1</v>
+      </c>
+      <c r="T42" s="50">
+        <v>1</v>
+      </c>
+      <c r="U42" s="50">
+        <v>1</v>
+      </c>
+      <c r="V42" s="50">
+        <v>1</v>
+      </c>
+      <c r="W42" s="50">
+        <v>1</v>
+      </c>
+      <c r="X42" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="s">
         <v>208</v>
       </c>
@@ -5374,8 +7180,53 @@
       <c r="P43">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q43" s="50">
+        <v>1</v>
+      </c>
+      <c r="R43" s="50">
+        <v>1</v>
+      </c>
+      <c r="S43" s="50">
+        <v>1</v>
+      </c>
+      <c r="T43" s="50">
+        <v>1</v>
+      </c>
+      <c r="U43" s="50">
+        <v>1</v>
+      </c>
+      <c r="V43" s="50">
+        <v>1</v>
+      </c>
+      <c r="W43" s="50">
+        <v>1</v>
+      </c>
+      <c r="X43" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="50" t="s">
         <v>211</v>
       </c>
@@ -5418,8 +7269,53 @@
       <c r="P44">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q44" s="50">
+        <v>1</v>
+      </c>
+      <c r="R44" s="50">
+        <v>1</v>
+      </c>
+      <c r="S44" s="50">
+        <v>1</v>
+      </c>
+      <c r="T44" s="50">
+        <v>1</v>
+      </c>
+      <c r="U44" s="50">
+        <v>1</v>
+      </c>
+      <c r="V44" s="50">
+        <v>1</v>
+      </c>
+      <c r="W44" s="50">
+        <v>1</v>
+      </c>
+      <c r="X44" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="51" t="s">
         <v>214</v>
       </c>
@@ -5462,8 +7358,53 @@
       <c r="P45">
         <v>80</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q45" s="50">
+        <v>1</v>
+      </c>
+      <c r="R45" s="50">
+        <v>1</v>
+      </c>
+      <c r="S45" s="50">
+        <v>1</v>
+      </c>
+      <c r="T45" s="50">
+        <v>1</v>
+      </c>
+      <c r="U45" s="50">
+        <v>1</v>
+      </c>
+      <c r="V45" s="50">
+        <v>1</v>
+      </c>
+      <c r="W45" s="50">
+        <v>1</v>
+      </c>
+      <c r="X45" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="51" t="s">
         <v>222</v>
       </c>
@@ -5506,8 +7447,53 @@
       <c r="P46">
         <v>60</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q46" s="50">
+        <v>1</v>
+      </c>
+      <c r="R46" s="50">
+        <v>1</v>
+      </c>
+      <c r="S46" s="50">
+        <v>1</v>
+      </c>
+      <c r="T46" s="50">
+        <v>1</v>
+      </c>
+      <c r="U46" s="50">
+        <v>1</v>
+      </c>
+      <c r="V46" s="50">
+        <v>1</v>
+      </c>
+      <c r="W46" s="50">
+        <v>1</v>
+      </c>
+      <c r="X46" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="51" t="s">
         <v>228</v>
       </c>
@@ -5550,8 +7536,53 @@
       <c r="P47">
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q47" s="50">
+        <v>1</v>
+      </c>
+      <c r="R47" s="50">
+        <v>1</v>
+      </c>
+      <c r="S47" s="50">
+        <v>1</v>
+      </c>
+      <c r="T47" s="50">
+        <v>1</v>
+      </c>
+      <c r="U47" s="50">
+        <v>1</v>
+      </c>
+      <c r="V47" s="50">
+        <v>1</v>
+      </c>
+      <c r="W47" s="50">
+        <v>1</v>
+      </c>
+      <c r="X47" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="51" t="s">
         <v>232</v>
       </c>
@@ -5594,8 +7625,53 @@
       <c r="P48">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q48" s="50">
+        <v>1</v>
+      </c>
+      <c r="R48" s="50">
+        <v>1</v>
+      </c>
+      <c r="S48" s="50">
+        <v>1</v>
+      </c>
+      <c r="T48" s="50">
+        <v>1</v>
+      </c>
+      <c r="U48" s="50">
+        <v>1</v>
+      </c>
+      <c r="V48" s="50">
+        <v>1</v>
+      </c>
+      <c r="W48" s="50">
+        <v>1</v>
+      </c>
+      <c r="X48" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="51" t="s">
         <v>239</v>
       </c>
@@ -5638,8 +7714,53 @@
       <c r="P49">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q49" s="50">
+        <v>1</v>
+      </c>
+      <c r="R49" s="50">
+        <v>1</v>
+      </c>
+      <c r="S49" s="50">
+        <v>1</v>
+      </c>
+      <c r="T49" s="50">
+        <v>1</v>
+      </c>
+      <c r="U49" s="50">
+        <v>1</v>
+      </c>
+      <c r="V49" s="50">
+        <v>1</v>
+      </c>
+      <c r="W49" s="50">
+        <v>1</v>
+      </c>
+      <c r="X49" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="51" t="s">
         <v>245</v>
       </c>
@@ -5682,8 +7803,53 @@
       <c r="P50">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q50" s="50">
+        <v>1</v>
+      </c>
+      <c r="R50" s="50">
+        <v>1</v>
+      </c>
+      <c r="S50" s="50">
+        <v>1</v>
+      </c>
+      <c r="T50" s="50">
+        <v>1</v>
+      </c>
+      <c r="U50" s="50">
+        <v>1</v>
+      </c>
+      <c r="V50" s="50">
+        <v>1</v>
+      </c>
+      <c r="W50" s="50">
+        <v>1</v>
+      </c>
+      <c r="X50" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" s="51" t="s">
         <v>248</v>
       </c>
@@ -5726,8 +7892,53 @@
       <c r="P51">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q51" s="50">
+        <v>1</v>
+      </c>
+      <c r="R51" s="50">
+        <v>1</v>
+      </c>
+      <c r="S51" s="50">
+        <v>1</v>
+      </c>
+      <c r="T51" s="50">
+        <v>1</v>
+      </c>
+      <c r="U51" s="50">
+        <v>1</v>
+      </c>
+      <c r="V51" s="50">
+        <v>1</v>
+      </c>
+      <c r="W51" s="50">
+        <v>1</v>
+      </c>
+      <c r="X51" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" s="51" t="s">
         <v>254</v>
       </c>
@@ -5770,8 +7981,53 @@
       <c r="P52">
         <v>28</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q52" s="50">
+        <v>1</v>
+      </c>
+      <c r="R52" s="50">
+        <v>1</v>
+      </c>
+      <c r="S52" s="50">
+        <v>1</v>
+      </c>
+      <c r="T52" s="50">
+        <v>1</v>
+      </c>
+      <c r="U52" s="50">
+        <v>1</v>
+      </c>
+      <c r="V52" s="50">
+        <v>1</v>
+      </c>
+      <c r="W52" s="50">
+        <v>1</v>
+      </c>
+      <c r="X52" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" s="50" t="s">
         <v>258</v>
       </c>
@@ -5814,8 +8070,53 @@
       <c r="P53" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q53" s="50">
+        <v>1</v>
+      </c>
+      <c r="R53" s="50">
+        <v>1</v>
+      </c>
+      <c r="S53" s="50">
+        <v>1</v>
+      </c>
+      <c r="T53" s="50">
+        <v>1</v>
+      </c>
+      <c r="U53" s="50">
+        <v>1</v>
+      </c>
+      <c r="V53" s="50">
+        <v>1</v>
+      </c>
+      <c r="W53" s="50">
+        <v>1</v>
+      </c>
+      <c r="X53" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" s="50" t="s">
         <v>267</v>
       </c>
@@ -5855,8 +8156,53 @@
       <c r="P54" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q54" s="50">
+        <v>1</v>
+      </c>
+      <c r="R54" s="50">
+        <v>1</v>
+      </c>
+      <c r="S54" s="50">
+        <v>1</v>
+      </c>
+      <c r="T54" s="50">
+        <v>1</v>
+      </c>
+      <c r="U54" s="50">
+        <v>1</v>
+      </c>
+      <c r="V54" s="50">
+        <v>1</v>
+      </c>
+      <c r="W54" s="50">
+        <v>1</v>
+      </c>
+      <c r="X54" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55" s="50" t="s">
         <v>275</v>
       </c>
@@ -5899,8 +8245,53 @@
       <c r="P55">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q55" s="50">
+        <v>1</v>
+      </c>
+      <c r="R55" s="50">
+        <v>1</v>
+      </c>
+      <c r="S55" s="50">
+        <v>1</v>
+      </c>
+      <c r="T55" s="50">
+        <v>1</v>
+      </c>
+      <c r="U55" s="50">
+        <v>1</v>
+      </c>
+      <c r="V55" s="50">
+        <v>1</v>
+      </c>
+      <c r="W55" s="50">
+        <v>1</v>
+      </c>
+      <c r="X55" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" s="50" t="s">
         <v>282</v>
       </c>
@@ -5943,8 +8334,53 @@
       <c r="P56">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q56" s="50">
+        <v>1</v>
+      </c>
+      <c r="R56" s="50">
+        <v>1</v>
+      </c>
+      <c r="S56" s="50">
+        <v>1</v>
+      </c>
+      <c r="T56" s="50">
+        <v>1</v>
+      </c>
+      <c r="U56" s="50">
+        <v>1</v>
+      </c>
+      <c r="V56" s="50">
+        <v>1</v>
+      </c>
+      <c r="W56" s="50">
+        <v>1</v>
+      </c>
+      <c r="X56" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" s="50" t="s">
         <v>289</v>
       </c>
@@ -5987,8 +8423,53 @@
       <c r="P57">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q57" s="50">
+        <v>1</v>
+      </c>
+      <c r="R57" s="50">
+        <v>1</v>
+      </c>
+      <c r="S57" s="50">
+        <v>1</v>
+      </c>
+      <c r="T57" s="50">
+        <v>1</v>
+      </c>
+      <c r="U57" s="50">
+        <v>1</v>
+      </c>
+      <c r="V57" s="50">
+        <v>1</v>
+      </c>
+      <c r="W57" s="50">
+        <v>1</v>
+      </c>
+      <c r="X57" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" s="50" t="s">
         <v>294</v>
       </c>
@@ -6025,8 +8506,53 @@
       <c r="O58">
         <v>650</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q58" s="50">
+        <v>1</v>
+      </c>
+      <c r="R58" s="50">
+        <v>1</v>
+      </c>
+      <c r="S58" s="50">
+        <v>1</v>
+      </c>
+      <c r="T58" s="50">
+        <v>1</v>
+      </c>
+      <c r="U58" s="50">
+        <v>1</v>
+      </c>
+      <c r="V58" s="50">
+        <v>1</v>
+      </c>
+      <c r="W58" s="50">
+        <v>1</v>
+      </c>
+      <c r="X58" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" s="50" t="s">
         <v>297</v>
       </c>
@@ -6069,8 +8595,53 @@
       <c r="P59">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q59" s="50">
+        <v>1</v>
+      </c>
+      <c r="R59" s="50">
+        <v>1</v>
+      </c>
+      <c r="S59" s="50">
+        <v>1</v>
+      </c>
+      <c r="T59" s="50">
+        <v>1</v>
+      </c>
+      <c r="U59" s="50">
+        <v>1</v>
+      </c>
+      <c r="V59" s="50">
+        <v>1</v>
+      </c>
+      <c r="W59" s="50">
+        <v>1</v>
+      </c>
+      <c r="X59" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE59" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60" s="50" t="s">
         <v>304</v>
       </c>
@@ -6113,8 +8684,53 @@
       <c r="P60">
         <v>30</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q60" s="50">
+        <v>1</v>
+      </c>
+      <c r="R60" s="50">
+        <v>1</v>
+      </c>
+      <c r="S60" s="50">
+        <v>1</v>
+      </c>
+      <c r="T60" s="50">
+        <v>1</v>
+      </c>
+      <c r="U60" s="50">
+        <v>1</v>
+      </c>
+      <c r="V60" s="50">
+        <v>1</v>
+      </c>
+      <c r="W60" s="50">
+        <v>1</v>
+      </c>
+      <c r="X60" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" s="50" t="s">
         <v>308</v>
       </c>
@@ -6157,8 +8773,53 @@
       <c r="P61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q61" s="50">
+        <v>1</v>
+      </c>
+      <c r="R61" s="50">
+        <v>1</v>
+      </c>
+      <c r="S61" s="50">
+        <v>1</v>
+      </c>
+      <c r="T61" s="50">
+        <v>1</v>
+      </c>
+      <c r="U61" s="50">
+        <v>1</v>
+      </c>
+      <c r="V61" s="50">
+        <v>1</v>
+      </c>
+      <c r="W61" s="50">
+        <v>1</v>
+      </c>
+      <c r="X61" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" s="50" t="s">
         <v>315</v>
       </c>
@@ -6201,8 +8862,53 @@
       <c r="P62" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q62" s="50">
+        <v>1</v>
+      </c>
+      <c r="R62" s="50">
+        <v>1</v>
+      </c>
+      <c r="S62" s="50">
+        <v>1</v>
+      </c>
+      <c r="T62" s="50">
+        <v>1</v>
+      </c>
+      <c r="U62" s="50">
+        <v>1</v>
+      </c>
+      <c r="V62" s="50">
+        <v>1</v>
+      </c>
+      <c r="W62" s="50">
+        <v>1</v>
+      </c>
+      <c r="X62" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE62" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63" s="50" t="s">
         <v>322</v>
       </c>
@@ -6245,8 +8951,53 @@
       <c r="P63" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q63">
+        <v>4</v>
+      </c>
+      <c r="R63" s="50">
+        <v>1</v>
+      </c>
+      <c r="S63" s="50">
+        <v>1</v>
+      </c>
+      <c r="T63" s="50">
+        <v>1</v>
+      </c>
+      <c r="U63" s="50">
+        <v>1</v>
+      </c>
+      <c r="V63" s="50">
+        <v>1</v>
+      </c>
+      <c r="W63" s="50">
+        <v>1</v>
+      </c>
+      <c r="X63" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE63" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64" s="50" t="s">
         <v>328</v>
       </c>
@@ -6289,8 +9040,53 @@
       <c r="P64">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64" s="50">
+        <v>1</v>
+      </c>
+      <c r="S64" s="50">
+        <v>1</v>
+      </c>
+      <c r="T64" s="50">
+        <v>1</v>
+      </c>
+      <c r="U64" s="50">
+        <v>1</v>
+      </c>
+      <c r="V64" s="50">
+        <v>1</v>
+      </c>
+      <c r="W64" s="50">
+        <v>1</v>
+      </c>
+      <c r="X64" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE64" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" s="50" t="s">
         <v>332</v>
       </c>
@@ -6332,6 +9128,51 @@
       </c>
       <c r="P65">
         <v>60</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65" s="50">
+        <v>1</v>
+      </c>
+      <c r="T65" s="50">
+        <v>1</v>
+      </c>
+      <c r="U65" s="50">
+        <v>1</v>
+      </c>
+      <c r="V65" s="50">
+        <v>1</v>
+      </c>
+      <c r="W65" s="50">
+        <v>1</v>
+      </c>
+      <c r="X65" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="50">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10386,6 +13227,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF98156A4E08ED42B22DA6C86624442E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="11ba5f1833b47c39d11f9a0fc9ca5ad0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56528f00-8daf-4285-8b2f-184ebce7f2e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b814f87d70368c36b985d9f62a71433" ns2:_="">
     <xsd:import namespace="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
@@ -10563,26 +13423,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3D178F-0972-40B6-A2AC-EA36D3A03FFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3162FD9B-11EE-402C-9DDF-408FEDD00CFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EFF826-2EF8-4A64-A822-C0246D0F06D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10598,22 +13457,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3162FD9B-11EE-402C-9DDF-408FEDD00CFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3D178F-0972-40B6-A2AC-EA36D3A03FFA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DATA SMR.xlsx
+++ b/DATA SMR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91563113-566D-469D-9989-FDCD59ABF0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CEF522-01E2-47A6-98F8-402169571943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="Excel Coupling Beta" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SMR (Main)'!$A$1:$AE$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SMR (Main)'!$A$1:$AF$101</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="534">
   <si>
     <t>Welcome on the Main Excel for our VTT Group work for the SMR technologies comparison</t>
   </si>
@@ -1641,12 +1641,129 @@
   <si>
     <t>Ecological impact</t>
   </si>
+  <si>
+    <t>Thermal efficiency</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1724,8 +1841,50 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1772,6 +1931,24 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2150,7 +2327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2339,6 +2516,24 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -3366,11 +3561,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9F640B-5EF1-49D4-AF1E-498E5DBF4C83}">
-  <dimension ref="A1:AE65"/>
+  <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:AE2"/>
+      <selection pane="bottomLeft" activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3384,10 +3579,10 @@
     <col min="8" max="8" width="68" customWidth="1"/>
     <col min="9" max="10" width="15.88671875" customWidth="1"/>
     <col min="11" max="11" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="16.6640625" customWidth="1"/>
+    <col min="12" max="17" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="46" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>7</v>
       </c>
@@ -3433,56 +3628,59 @@
       <c r="O1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="76" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="S1" s="48" t="s">
         <v>493</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="T1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="U1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="V1" s="48" t="s">
         <v>494</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="W1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="X1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="Y1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="Z1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="AA1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AB1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="48" t="s">
+      <c r="AC1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="48" t="s">
+      <c r="AD1" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="48" t="s">
+      <c r="AE1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="48" t="s">
+      <c r="AF1" s="48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
         <v>38</v>
       </c>
@@ -3528,11 +3726,11 @@
       <c r="O2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="77" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q2" s="49" t="s">
         <v>43</v>
-      </c>
-      <c r="Q2" s="49" t="s">
-        <v>44</v>
       </c>
       <c r="R2" s="49" t="s">
         <v>44</v>
@@ -3555,11 +3753,11 @@
       <c r="X2" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="49">
+      <c r="Y2" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="49">
         <v>10</v>
-      </c>
-      <c r="Z2" s="49" t="s">
-        <v>44</v>
       </c>
       <c r="AA2" s="49" t="s">
         <v>44</v>
@@ -3576,8 +3774,11 @@
       <c r="AE2" s="49" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AF2" s="49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>45</v>
       </c>
@@ -3617,14 +3818,14 @@
       <c r="O3" s="50">
         <v>319.5</v>
       </c>
-      <c r="P3" s="50">
+      <c r="P3" s="78" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q3" s="50">
         <v>60</v>
       </c>
-      <c r="Q3" s="50">
-        <v>1</v>
-      </c>
       <c r="R3" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3" s="50">
         <v>1</v>
@@ -3660,13 +3861,16 @@
         <v>1</v>
       </c>
       <c r="AD3" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE3" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>53</v>
       </c>
@@ -3706,12 +3910,12 @@
       <c r="O4" s="50">
         <v>326</v>
       </c>
-      <c r="P4" s="50">
+      <c r="P4" s="78" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q4" s="50">
         <v>40</v>
       </c>
-      <c r="Q4" s="50">
-        <v>1</v>
-      </c>
       <c r="R4" s="50">
         <v>1</v>
       </c>
@@ -3749,13 +3953,16 @@
         <v>1</v>
       </c>
       <c r="AD4" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>57</v>
       </c>
@@ -3795,14 +4002,14 @@
       <c r="O5" s="50">
         <v>321</v>
       </c>
-      <c r="P5" s="50">
+      <c r="P5" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q5" s="50">
         <v>80</v>
       </c>
-      <c r="Q5" s="50">
-        <v>1</v>
-      </c>
       <c r="R5" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5" s="50">
         <v>1</v>
@@ -3838,13 +4045,16 @@
         <v>1</v>
       </c>
       <c r="AD5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
         <v>63</v>
       </c>
@@ -3884,14 +4094,14 @@
       <c r="O6" s="50">
         <v>316</v>
       </c>
-      <c r="P6" s="50">
+      <c r="P6" s="78" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q6" s="50">
         <v>60</v>
       </c>
-      <c r="Q6" s="50">
-        <v>1</v>
-      </c>
       <c r="R6" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6" s="50">
         <v>1</v>
@@ -3927,13 +4137,16 @@
         <v>1</v>
       </c>
       <c r="AD6" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE6" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
         <v>67</v>
       </c>
@@ -3973,12 +4186,12 @@
       <c r="O7" s="50">
         <v>321</v>
       </c>
-      <c r="P7" s="50">
+      <c r="P7" s="78" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q7" s="50">
         <v>60</v>
       </c>
-      <c r="Q7" s="50">
-        <v>1</v>
-      </c>
       <c r="R7" s="50">
         <v>1</v>
       </c>
@@ -4016,13 +4229,16 @@
         <v>1</v>
       </c>
       <c r="AD7" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>73</v>
       </c>
@@ -4062,12 +4278,12 @@
       <c r="O8" s="50">
         <v>120</v>
       </c>
-      <c r="P8" s="50">
+      <c r="P8" s="78" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q8" s="50">
         <v>60</v>
       </c>
-      <c r="Q8" s="50">
-        <v>1</v>
-      </c>
       <c r="R8" s="50">
         <v>1</v>
       </c>
@@ -4105,13 +4321,16 @@
         <v>1</v>
       </c>
       <c r="AD8" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" s="81">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
         <v>77</v>
       </c>
@@ -4151,14 +4370,14 @@
       <c r="O9" s="50">
         <v>288</v>
       </c>
-      <c r="P9" s="50">
+      <c r="P9" s="78" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q9" s="50">
         <v>60</v>
       </c>
-      <c r="Q9" s="50">
-        <v>1</v>
-      </c>
       <c r="R9" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S9" s="50">
         <v>1</v>
@@ -4194,13 +4413,16 @@
         <v>1</v>
       </c>
       <c r="AD9" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE9" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>82</v>
       </c>
@@ -4240,14 +4462,14 @@
       <c r="O10" s="50">
         <v>325</v>
       </c>
-      <c r="P10" s="50">
+      <c r="P10" s="78" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q10" s="50">
         <v>60</v>
       </c>
-      <c r="Q10" s="50">
-        <v>1</v>
-      </c>
       <c r="R10" s="50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S10" s="50">
         <v>1</v>
@@ -4283,13 +4505,16 @@
         <v>1</v>
       </c>
       <c r="AD10" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE10" s="81">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>86</v>
       </c>
@@ -4329,14 +4554,14 @@
       <c r="O11" s="50">
         <v>285</v>
       </c>
-      <c r="P11" s="50">
+      <c r="P11" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q11" s="50">
         <v>60</v>
       </c>
-      <c r="Q11" s="50">
-        <v>1</v>
-      </c>
       <c r="R11" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S11" s="50">
         <v>1</v>
@@ -4372,13 +4597,16 @@
         <v>1</v>
       </c>
       <c r="AD11" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="50" t="s">
         <v>89</v>
       </c>
@@ -4418,14 +4646,14 @@
       <c r="O12" s="50">
         <v>322</v>
       </c>
-      <c r="P12" s="50">
+      <c r="P12" s="78" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q12" s="50">
         <v>60</v>
       </c>
-      <c r="Q12" s="50">
-        <v>1</v>
-      </c>
       <c r="R12" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="50">
         <v>1</v>
@@ -4461,13 +4689,16 @@
         <v>1</v>
       </c>
       <c r="AD12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE12" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
         <v>93</v>
       </c>
@@ -4507,12 +4738,12 @@
       <c r="O13" s="50">
         <v>312</v>
       </c>
-      <c r="P13" s="50">
+      <c r="P13" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q13" s="50">
         <v>40</v>
       </c>
-      <c r="Q13" s="50">
-        <v>1</v>
-      </c>
       <c r="R13" s="50">
         <v>1</v>
       </c>
@@ -4550,13 +4781,16 @@
         <v>1</v>
       </c>
       <c r="AD13" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
         <v>96</v>
       </c>
@@ -4596,14 +4830,14 @@
       <c r="O14" s="50">
         <v>324</v>
       </c>
-      <c r="P14" s="50">
+      <c r="P14" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q14" s="50">
         <v>60</v>
       </c>
-      <c r="Q14" s="50">
-        <v>1</v>
-      </c>
       <c r="R14" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S14" s="50">
         <v>1</v>
@@ -4639,13 +4873,16 @@
         <v>1</v>
       </c>
       <c r="AD14" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE14" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="s">
         <v>100</v>
       </c>
@@ -4685,14 +4922,14 @@
       <c r="O15" s="50">
         <v>345</v>
       </c>
-      <c r="P15" s="50">
+      <c r="P15" s="78" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q15" s="50">
         <v>60</v>
       </c>
-      <c r="Q15" s="50">
-        <v>1</v>
-      </c>
       <c r="R15" s="50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S15" s="50">
         <v>1</v>
@@ -4728,13 +4965,16 @@
         <v>1</v>
       </c>
       <c r="AD15" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE15" s="81">
+        <v>3</v>
+      </c>
+      <c r="AF15" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="50" t="s">
         <v>104</v>
       </c>
@@ -4774,12 +5014,12 @@
       <c r="O16" s="50">
         <v>193</v>
       </c>
-      <c r="P16" s="50">
+      <c r="P16" s="78" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q16" s="50">
         <v>60</v>
       </c>
-      <c r="Q16" s="50">
-        <v>1</v>
-      </c>
       <c r="R16" s="50">
         <v>1</v>
       </c>
@@ -4817,13 +5057,16 @@
         <v>1</v>
       </c>
       <c r="AD16" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE16" s="81">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
         <v>111</v>
       </c>
@@ -4863,12 +5106,12 @@
       <c r="O17" s="50">
         <v>102</v>
       </c>
-      <c r="P17" s="50">
+      <c r="P17" s="78" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q17" s="50">
         <v>60</v>
       </c>
-      <c r="Q17" s="50">
-        <v>1</v>
-      </c>
       <c r="R17" s="50">
         <v>1</v>
       </c>
@@ -4906,13 +5149,16 @@
         <v>1</v>
       </c>
       <c r="AD17" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE17" s="81">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
         <v>115</v>
       </c>
@@ -4952,12 +5198,12 @@
       <c r="O18" s="50">
         <v>286</v>
       </c>
-      <c r="P18" s="50">
+      <c r="P18" s="78" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q18" s="50">
         <v>80</v>
       </c>
-      <c r="Q18" s="50">
-        <v>1</v>
-      </c>
       <c r="R18" s="50">
         <v>1</v>
       </c>
@@ -4995,13 +5241,16 @@
         <v>1</v>
       </c>
       <c r="AD18" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="AE18" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
         <v>118</v>
       </c>
@@ -5041,14 +5290,14 @@
       <c r="O19" s="50">
         <v>307</v>
       </c>
-      <c r="P19" s="50">
+      <c r="P19" s="78" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q19" s="50">
         <v>60</v>
       </c>
-      <c r="Q19" s="50">
-        <v>1</v>
-      </c>
       <c r="R19" s="50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S19" s="50">
         <v>1</v>
@@ -5084,13 +5333,16 @@
         <v>1</v>
       </c>
       <c r="AD19" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE19" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
         <v>122</v>
       </c>
@@ -5130,14 +5382,14 @@
       <c r="O20" s="50">
         <v>310</v>
       </c>
-      <c r="P20" s="50">
+      <c r="P20" s="78" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q20" s="50">
         <v>70</v>
       </c>
-      <c r="Q20" s="50">
-        <v>1</v>
-      </c>
       <c r="R20" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S20" s="50">
         <v>1</v>
@@ -5173,13 +5425,16 @@
         <v>1</v>
       </c>
       <c r="AD20" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+        <v>8.75</v>
+      </c>
+      <c r="AE20" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
         <v>128</v>
       </c>
@@ -5219,14 +5474,14 @@
       <c r="O21" s="50">
         <v>318.89999999999998</v>
       </c>
-      <c r="P21" s="50">
+      <c r="P21" s="78" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q21" s="50">
         <v>60</v>
       </c>
-      <c r="Q21" s="50">
-        <v>1</v>
-      </c>
       <c r="R21" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S21" s="50">
         <v>1</v>
@@ -5262,13 +5517,16 @@
         <v>1</v>
       </c>
       <c r="AD21" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE21" s="81">
+        <v>3</v>
+      </c>
+      <c r="AF21" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
         <v>131</v>
       </c>
@@ -5308,14 +5566,14 @@
       <c r="O22" s="50">
         <v>320.89999999999998</v>
       </c>
-      <c r="P22" s="50">
+      <c r="P22" s="78" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q22" s="50">
         <v>80</v>
       </c>
-      <c r="Q22" s="50">
-        <v>1</v>
-      </c>
       <c r="R22" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" s="50">
         <v>1</v>
@@ -5351,13 +5609,16 @@
         <v>1</v>
       </c>
       <c r="AD22" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="AE22" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
         <v>135</v>
       </c>
@@ -5397,14 +5658,14 @@
       <c r="O23" s="50">
         <v>286</v>
       </c>
-      <c r="P23" s="50">
+      <c r="P23" s="78" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q23" s="50">
         <v>80</v>
       </c>
-      <c r="Q23" s="50">
-        <v>1</v>
-      </c>
       <c r="R23" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S23" s="50">
         <v>1</v>
@@ -5440,13 +5701,16 @@
         <v>1</v>
       </c>
       <c r="AD23" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="AE23" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
         <v>137</v>
       </c>
@@ -5486,12 +5750,12 @@
       <c r="O24" s="50">
         <v>98</v>
       </c>
-      <c r="P24" s="50">
+      <c r="P24" s="78" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q24" s="50">
         <v>60</v>
       </c>
-      <c r="Q24" s="50">
-        <v>1</v>
-      </c>
       <c r="R24" s="50">
         <v>1</v>
       </c>
@@ -5529,13 +5793,16 @@
         <v>1</v>
       </c>
       <c r="AD24" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE24" s="81">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="s">
         <v>141</v>
       </c>
@@ -5575,12 +5842,12 @@
       <c r="O25" s="50">
         <v>280</v>
       </c>
-      <c r="P25" s="50">
+      <c r="P25" s="78" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q25" s="50">
         <v>60</v>
       </c>
-      <c r="Q25" s="50">
-        <v>1</v>
-      </c>
       <c r="R25" s="50">
         <v>1</v>
       </c>
@@ -5618,13 +5885,16 @@
         <v>1</v>
       </c>
       <c r="AD25" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE25" s="81">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
         <v>144</v>
       </c>
@@ -5664,14 +5934,14 @@
       <c r="O26" s="50">
         <v>313</v>
       </c>
-      <c r="P26" s="50">
+      <c r="P26" s="78" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q26" s="50">
         <v>60</v>
       </c>
-      <c r="Q26" s="50">
-        <v>1</v>
-      </c>
       <c r="R26" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S26" s="50">
         <v>1</v>
@@ -5707,13 +5977,16 @@
         <v>1</v>
       </c>
       <c r="AD26" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE26" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
         <v>147</v>
       </c>
@@ -5753,12 +6026,12 @@
       <c r="O27" s="50">
         <v>300</v>
       </c>
-      <c r="P27" s="50">
+      <c r="P27" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q27" s="50">
         <v>60</v>
       </c>
-      <c r="Q27" s="50">
-        <v>1</v>
-      </c>
       <c r="R27" s="50">
         <v>1</v>
       </c>
@@ -5796,13 +6069,16 @@
         <v>1</v>
       </c>
       <c r="AD27" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE27" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
         <v>152</v>
       </c>
@@ -5842,12 +6118,12 @@
       <c r="O28" s="50">
         <v>750</v>
       </c>
-      <c r="P28" s="50">
+      <c r="P28" s="78" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q28" s="50">
         <v>40</v>
       </c>
-      <c r="Q28" s="50">
-        <v>1</v>
-      </c>
       <c r="R28" s="50">
         <v>1</v>
       </c>
@@ -5885,13 +6161,16 @@
         <v>1</v>
       </c>
       <c r="AD28" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE28" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF28" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="s">
         <v>158</v>
       </c>
@@ -5931,14 +6210,14 @@
       <c r="O29">
         <v>750</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="78" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q29">
         <v>60</v>
       </c>
-      <c r="Q29" s="50">
-        <v>1</v>
-      </c>
       <c r="R29" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S29" s="50">
         <v>1</v>
@@ -5974,13 +6253,16 @@
         <v>1</v>
       </c>
       <c r="AD29" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF29" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
         <v>163</v>
       </c>
@@ -6020,14 +6302,14 @@
       <c r="O30">
         <v>700</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="78" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q30">
         <v>20</v>
       </c>
-      <c r="Q30" s="50">
-        <v>1</v>
-      </c>
       <c r="R30" s="50">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S30" s="50">
         <v>1</v>
@@ -6063,13 +6345,16 @@
         <v>1</v>
       </c>
       <c r="AD30" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AE30" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF30" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="50" t="s">
         <v>166</v>
       </c>
@@ -6109,14 +6394,14 @@
       <c r="O31">
         <v>900</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="78" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q31">
         <v>60</v>
       </c>
-      <c r="Q31" s="50">
-        <v>1</v>
-      </c>
       <c r="R31" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S31" s="50">
         <v>1</v>
@@ -6152,13 +6437,16 @@
         <v>1</v>
       </c>
       <c r="AD31" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE31" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF31" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="50" t="s">
         <v>169</v>
       </c>
@@ -6198,12 +6486,12 @@
       <c r="O32">
         <v>850</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="78" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q32">
         <v>60</v>
       </c>
-      <c r="Q32" s="50">
-        <v>1</v>
-      </c>
       <c r="R32" s="50">
         <v>1</v>
       </c>
@@ -6241,13 +6529,16 @@
         <v>1</v>
       </c>
       <c r="AD32" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+      <c r="AE32" s="81">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" s="50" t="s">
         <v>172</v>
       </c>
@@ -6287,14 +6578,14 @@
       <c r="O33">
         <v>950</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="79" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q33">
         <v>60</v>
       </c>
-      <c r="Q33" s="50">
-        <v>1</v>
-      </c>
       <c r="R33" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S33" s="50">
         <v>1</v>
@@ -6330,13 +6621,16 @@
         <v>1</v>
       </c>
       <c r="AD33" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE33" s="82">
+        <v>10</v>
+      </c>
+      <c r="AF33" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="50" t="s">
         <v>176</v>
       </c>
@@ -6376,14 +6670,14 @@
       <c r="O34">
         <v>800</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="78" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q34">
         <v>60</v>
       </c>
-      <c r="Q34" s="50">
-        <v>1</v>
-      </c>
       <c r="R34" s="50">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S34" s="50">
         <v>1</v>
@@ -6419,13 +6713,16 @@
         <v>1</v>
       </c>
       <c r="AD34" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE34" s="81">
+        <v>3</v>
+      </c>
+      <c r="AF34" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="50" t="s">
         <v>179</v>
       </c>
@@ -6465,14 +6762,14 @@
       <c r="O35">
         <v>1200</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="78" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q35">
         <v>40</v>
       </c>
-      <c r="Q35" s="50">
-        <v>1</v>
-      </c>
       <c r="R35" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S35" s="50">
         <v>1</v>
@@ -6508,13 +6805,16 @@
         <v>1</v>
       </c>
       <c r="AD35" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="AE35" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF35" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
         <v>183</v>
       </c>
@@ -6554,14 +6854,14 @@
       <c r="O36">
         <v>900</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q36">
         <v>40</v>
       </c>
-      <c r="Q36" s="50">
-        <v>1</v>
-      </c>
       <c r="R36" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S36" s="50">
         <v>1</v>
@@ -6597,13 +6897,16 @@
         <v>1</v>
       </c>
       <c r="AD36" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE36" s="81">
+        <v>10</v>
+      </c>
+      <c r="AF36" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
         <v>186</v>
       </c>
@@ -6643,14 +6946,14 @@
       <c r="O37">
         <v>750</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="78" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q37">
         <v>40</v>
       </c>
-      <c r="Q37" s="50">
-        <v>1</v>
-      </c>
       <c r="R37" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S37" s="50">
         <v>1</v>
@@ -6686,13 +6989,16 @@
         <v>1</v>
       </c>
       <c r="AD37" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="AE37" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF37" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
         <v>189</v>
       </c>
@@ -6732,14 +7038,14 @@
       <c r="O38">
         <v>850</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="79" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q38">
         <v>60</v>
       </c>
-      <c r="Q38" s="50">
-        <v>1</v>
-      </c>
       <c r="R38" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S38" s="50">
         <v>1</v>
@@ -6775,13 +7081,16 @@
         <v>1</v>
       </c>
       <c r="AD38" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE38" s="82">
+        <v>10</v>
+      </c>
+      <c r="AF38" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" s="50" t="s">
         <v>194</v>
       </c>
@@ -6821,14 +7130,14 @@
       <c r="O39">
         <v>800</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="78" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q39">
         <v>60</v>
       </c>
-      <c r="Q39" s="50">
-        <v>1</v>
-      </c>
       <c r="R39" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S39" s="50">
         <v>1</v>
@@ -6864,13 +7173,16 @@
         <v>1</v>
       </c>
       <c r="AD39" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+        <v>3.75</v>
+      </c>
+      <c r="AE39" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF39" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
         <v>197</v>
       </c>
@@ -6910,14 +7222,14 @@
       <c r="O40">
         <v>750</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q40">
         <v>60</v>
       </c>
-      <c r="Q40" s="50">
-        <v>1</v>
-      </c>
       <c r="R40" s="50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S40" s="50">
         <v>1</v>
@@ -6953,13 +7265,16 @@
         <v>1</v>
       </c>
       <c r="AD40" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="AE40" s="83">
+        <v>10</v>
+      </c>
+      <c r="AF40" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
         <v>200</v>
       </c>
@@ -6999,14 +7314,14 @@
       <c r="O41">
         <v>750</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="78" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q41">
         <v>80</v>
       </c>
-      <c r="Q41" s="50">
-        <v>1</v>
-      </c>
       <c r="R41" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S41" s="50">
         <v>1</v>
@@ -7042,13 +7357,16 @@
         <v>1</v>
       </c>
       <c r="AD41" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AE41" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF41" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
         <v>204</v>
       </c>
@@ -7088,14 +7406,14 @@
       <c r="O42">
         <v>750</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="78" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q42">
         <v>40</v>
       </c>
-      <c r="Q42" s="50">
-        <v>1</v>
-      </c>
       <c r="R42" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S42" s="50">
         <v>1</v>
@@ -7131,13 +7449,16 @@
         <v>1</v>
       </c>
       <c r="AD42" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE42" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE42" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF42" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="s">
         <v>208</v>
       </c>
@@ -7177,14 +7498,14 @@
       <c r="O43">
         <v>700</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="78" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q43">
         <v>20</v>
       </c>
-      <c r="Q43" s="50">
-        <v>1</v>
-      </c>
       <c r="R43" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S43" s="50">
         <v>1</v>
@@ -7220,13 +7541,16 @@
         <v>1</v>
       </c>
       <c r="AD43" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE43" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF43" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" s="50" t="s">
         <v>211</v>
       </c>
@@ -7266,14 +7590,14 @@
       <c r="O44">
         <v>850</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="78" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q44">
         <v>20</v>
       </c>
-      <c r="Q44" s="50">
-        <v>1</v>
-      </c>
       <c r="R44" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S44" s="50">
         <v>1</v>
@@ -7309,13 +7633,16 @@
         <v>1</v>
       </c>
       <c r="AD44" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE44" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE44" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF44" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" s="51" t="s">
         <v>214</v>
       </c>
@@ -7355,14 +7682,14 @@
       <c r="O45">
         <v>650</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="78" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q45">
         <v>80</v>
       </c>
-      <c r="Q45" s="50">
-        <v>1</v>
-      </c>
       <c r="R45" s="50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S45" s="50">
         <v>1</v>
@@ -7398,13 +7725,16 @@
         <v>1</v>
       </c>
       <c r="AD45" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE45" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="AE45" s="81">
+        <v>10</v>
+      </c>
+      <c r="AF45" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" s="51" t="s">
         <v>222</v>
       </c>
@@ -7444,14 +7774,14 @@
       <c r="O46">
         <v>510</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="78" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q46">
         <v>60</v>
       </c>
-      <c r="Q46" s="50">
-        <v>1</v>
-      </c>
       <c r="R46" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S46" s="50">
         <v>1</v>
@@ -7487,13 +7817,16 @@
         <v>1</v>
       </c>
       <c r="AD46" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE46" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE46" s="81">
+        <v>3</v>
+      </c>
+      <c r="AF46" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" s="51" t="s">
         <v>228</v>
       </c>
@@ -7533,12 +7866,12 @@
       <c r="O47">
         <v>510</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q47">
         <v>60</v>
       </c>
-      <c r="Q47" s="50">
-        <v>1</v>
-      </c>
       <c r="R47" s="50">
         <v>1</v>
       </c>
@@ -7576,13 +7909,16 @@
         <v>1</v>
       </c>
       <c r="AD47" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE47" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE47" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="51" t="s">
         <v>232</v>
       </c>
@@ -7622,12 +7958,12 @@
       <c r="O48">
         <v>350</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q48">
         <v>40</v>
       </c>
-      <c r="Q48" s="50">
-        <v>1</v>
-      </c>
       <c r="R48" s="50">
         <v>1</v>
       </c>
@@ -7665,13 +8001,16 @@
         <v>1</v>
       </c>
       <c r="AD48" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AE48" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" s="51" t="s">
         <v>239</v>
       </c>
@@ -7711,14 +8050,14 @@
       <c r="O49">
         <v>535</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="78" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q49">
         <v>30</v>
       </c>
-      <c r="Q49" s="50">
-        <v>1</v>
-      </c>
       <c r="R49" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S49" s="50">
         <v>1</v>
@@ -7754,13 +8093,16 @@
         <v>1</v>
       </c>
       <c r="AD49" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE49" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+        <v>3.75</v>
+      </c>
+      <c r="AE49" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF49" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" s="51" t="s">
         <v>245</v>
       </c>
@@ -7800,14 +8142,14 @@
       <c r="O50">
         <v>530</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="78" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q50">
         <v>60</v>
       </c>
-      <c r="Q50" s="50">
-        <v>1</v>
-      </c>
       <c r="R50" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S50" s="50">
         <v>1</v>
@@ -7843,13 +8185,16 @@
         <v>1</v>
       </c>
       <c r="AD50" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE50" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE50" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF50" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" s="51" t="s">
         <v>248</v>
       </c>
@@ -7889,14 +8234,14 @@
       <c r="O51">
         <v>485</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="78" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q51">
         <v>60</v>
       </c>
-      <c r="Q51" s="50">
-        <v>1</v>
-      </c>
       <c r="R51" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S51" s="50">
         <v>1</v>
@@ -7932,13 +8277,16 @@
         <v>1</v>
       </c>
       <c r="AD51" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE51" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE51" s="81">
+        <v>5</v>
+      </c>
+      <c r="AF51" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" s="51" t="s">
         <v>254</v>
       </c>
@@ -7978,12 +8326,12 @@
       <c r="O52">
         <v>550</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="78" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q52">
         <v>28</v>
       </c>
-      <c r="Q52" s="50">
-        <v>1</v>
-      </c>
       <c r="R52" s="50">
         <v>1</v>
       </c>
@@ -8021,13 +8369,16 @@
         <v>1</v>
       </c>
       <c r="AD52" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE52" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+      <c r="AE52" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF52" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" s="50" t="s">
         <v>258</v>
       </c>
@@ -8067,14 +8418,14 @@
       <c r="O53">
         <v>675</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="78" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q53" t="s">
         <v>266</v>
       </c>
-      <c r="Q53" s="50">
-        <v>1</v>
-      </c>
       <c r="R53" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S53" s="50">
         <v>1</v>
@@ -8110,13 +8461,16 @@
         <v>1</v>
       </c>
       <c r="AD53" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE53" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE53" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF53" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" s="50" t="s">
         <v>267</v>
       </c>
@@ -8153,12 +8507,12 @@
       <c r="O54">
         <v>750</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="79" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q54" t="s">
         <v>274</v>
       </c>
-      <c r="Q54" s="50">
-        <v>1</v>
-      </c>
       <c r="R54" s="50">
         <v>1</v>
       </c>
@@ -8196,13 +8550,16 @@
         <v>1</v>
       </c>
       <c r="AD54" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE54" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AE54" s="82">
+        <v>10</v>
+      </c>
+      <c r="AF54" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" s="50" t="s">
         <v>275</v>
       </c>
@@ -8242,12 +8599,12 @@
       <c r="O55">
         <v>800</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="78" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q55">
         <v>60</v>
       </c>
-      <c r="Q55" s="50">
-        <v>1</v>
-      </c>
       <c r="R55" s="50">
         <v>1</v>
       </c>
@@ -8285,13 +8642,16 @@
         <v>1</v>
       </c>
       <c r="AD55" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE55" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AE55" s="81">
+        <v>3</v>
+      </c>
+      <c r="AF55" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" s="50" t="s">
         <v>282</v>
       </c>
@@ -8331,12 +8691,12 @@
       <c r="O56">
         <v>700</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="79" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q56">
         <v>56</v>
       </c>
-      <c r="Q56" s="50">
-        <v>1</v>
-      </c>
       <c r="R56" s="50">
         <v>1</v>
       </c>
@@ -8374,13 +8734,16 @@
         <v>1</v>
       </c>
       <c r="AD56" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE56" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE56" s="82">
+        <v>10</v>
+      </c>
+      <c r="AF56" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" s="50" t="s">
         <v>289</v>
       </c>
@@ -8420,14 +8783,14 @@
       <c r="O57">
         <v>625</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="78" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q57">
         <v>60</v>
       </c>
-      <c r="Q57" s="50">
-        <v>1</v>
-      </c>
       <c r="R57" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S57" s="50">
         <v>1</v>
@@ -8463,13 +8826,16 @@
         <v>1</v>
       </c>
       <c r="AD57" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE57" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE57" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF57" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" s="50" t="s">
         <v>294</v>
       </c>
@@ -8506,11 +8872,11 @@
       <c r="O58">
         <v>650</v>
       </c>
-      <c r="Q58" s="50">
-        <v>1</v>
+      <c r="P58" s="78" t="s">
+        <v>529</v>
       </c>
       <c r="R58" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S58" s="50">
         <v>1</v>
@@ -8546,13 +8912,16 @@
         <v>1</v>
       </c>
       <c r="AD58" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE58" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="AE58" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF58" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" s="50" t="s">
         <v>297</v>
       </c>
@@ -8592,12 +8961,12 @@
       <c r="O59">
         <v>704</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="78" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q59">
         <v>80</v>
       </c>
-      <c r="Q59" s="50">
-        <v>1</v>
-      </c>
       <c r="R59" s="50">
         <v>1</v>
       </c>
@@ -8635,13 +9004,16 @@
         <v>1</v>
       </c>
       <c r="AD59" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE59" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+        <v>0.625</v>
+      </c>
+      <c r="AE59" s="81">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" s="50" t="s">
         <v>304</v>
       </c>
@@ -8681,12 +9053,12 @@
       <c r="O60">
         <v>704</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="78" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q60">
         <v>30</v>
       </c>
-      <c r="Q60" s="50">
-        <v>1</v>
-      </c>
       <c r="R60" s="50">
         <v>1</v>
       </c>
@@ -8724,13 +9096,16 @@
         <v>1</v>
       </c>
       <c r="AD60" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE60" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AE60" s="81">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" s="50" t="s">
         <v>308</v>
       </c>
@@ -8770,12 +9145,12 @@
       <c r="O61">
         <v>700</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="78" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q61">
         <v>60</v>
       </c>
-      <c r="Q61" s="50">
-        <v>1</v>
-      </c>
       <c r="R61" s="50">
         <v>1</v>
       </c>
@@ -8813,13 +9188,16 @@
         <v>1</v>
       </c>
       <c r="AD61" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE61" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+      <c r="AE61" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF61" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" s="50" t="s">
         <v>315</v>
       </c>
@@ -8859,14 +9237,14 @@
       <c r="O62">
         <v>650</v>
       </c>
-      <c r="P62" t="s">
+      <c r="P62" s="78" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q62" t="s">
         <v>321</v>
       </c>
-      <c r="Q62" s="50">
-        <v>1</v>
-      </c>
       <c r="R62" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S62" s="50">
         <v>1</v>
@@ -8902,13 +9280,16 @@
         <v>1</v>
       </c>
       <c r="AD62" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE62" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+      <c r="AE62" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF62" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" s="50" t="s">
         <v>322</v>
       </c>
@@ -8948,14 +9329,14 @@
       <c r="O63">
         <v>670</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P63" s="78" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q63" t="s">
         <v>327</v>
       </c>
-      <c r="Q63">
-        <v>4</v>
-      </c>
       <c r="R63" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S63" s="50">
         <v>1</v>
@@ -8991,13 +9372,16 @@
         <v>1</v>
       </c>
       <c r="AD63" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE63" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+      <c r="AE63" s="81">
+        <v>9</v>
+      </c>
+      <c r="AF63" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" s="50" t="s">
         <v>328</v>
       </c>
@@ -9037,56 +9421,59 @@
       <c r="O64">
         <v>700</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="78" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q64">
         <v>60</v>
       </c>
-      <c r="Q64">
+      <c r="R64" s="50">
+        <v>1</v>
+      </c>
+      <c r="S64" s="50">
+        <v>1</v>
+      </c>
+      <c r="T64" s="50">
+        <v>1</v>
+      </c>
+      <c r="U64" s="50">
+        <v>1</v>
+      </c>
+      <c r="V64" s="50">
+        <v>1</v>
+      </c>
+      <c r="W64" s="50">
+        <v>1</v>
+      </c>
+      <c r="X64" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="AE64" s="81">
         <v>0</v>
       </c>
-      <c r="R64" s="50">
-        <v>1</v>
-      </c>
-      <c r="S64" s="50">
-        <v>1</v>
-      </c>
-      <c r="T64" s="50">
-        <v>1</v>
-      </c>
-      <c r="U64" s="50">
-        <v>1</v>
-      </c>
-      <c r="V64" s="50">
-        <v>1</v>
-      </c>
-      <c r="W64" s="50">
-        <v>1</v>
-      </c>
-      <c r="X64" s="50">
-        <v>1</v>
-      </c>
-      <c r="Y64" s="50">
-        <v>1</v>
-      </c>
-      <c r="Z64" s="50">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB64" s="50">
-        <v>1</v>
-      </c>
-      <c r="AC64" s="50">
-        <v>1</v>
-      </c>
-      <c r="AD64" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE64" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF64" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65" s="50" t="s">
         <v>332</v>
       </c>
@@ -9126,18 +9513,18 @@
       <c r="O65">
         <v>795</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="78" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q65">
         <v>60</v>
       </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
+      <c r="R65" s="50">
+        <v>1</v>
+      </c>
+      <c r="S65">
         <v>2</v>
       </c>
-      <c r="S65" s="50">
-        <v>1</v>
-      </c>
       <c r="T65" s="50">
         <v>1</v>
       </c>
@@ -9169,14 +9556,17 @@
         <v>1</v>
       </c>
       <c r="AD65" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE65" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="AE65" s="81">
+        <v>1</v>
+      </c>
+      <c r="AF65" s="50">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE101" xr:uid="{9C9F640B-5EF1-49D4-AF1E-498E5DBF4C83}"/>
+  <autoFilter ref="A1:AF101" xr:uid="{9C9F640B-5EF1-49D4-AF1E-498E5DBF4C83}"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B65" xr:uid="{51D888AB-8CD7-42F5-B7F4-A0395698D900}"/>
   </dataValidations>
@@ -13227,25 +13617,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF98156A4E08ED42B22DA6C86624442E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="11ba5f1833b47c39d11f9a0fc9ca5ad0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56528f00-8daf-4285-8b2f-184ebce7f2e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b814f87d70368c36b985d9f62a71433" ns2:_="">
     <xsd:import namespace="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
@@ -13423,25 +13794,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3D178F-0972-40B6-A2AC-EA36D3A03FFA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3162FD9B-11EE-402C-9DDF-408FEDD00CFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EFF826-2EF8-4A64-A822-C0246D0F06D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13457,4 +13829,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3162FD9B-11EE-402C-9DDF-408FEDD00CFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3D178F-0972-40B6-A2AC-EA36D3A03FFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DATA SMR.xlsx
+++ b/DATA SMR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CEF522-01E2-47A6-98F8-402169571943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DC0241-06E4-4267-BA5C-5F476D11C61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="496">
   <si>
     <t>Welcome on the Main Excel for our VTT Group work for the SMR technologies comparison</t>
   </si>
@@ -1644,126 +1644,12 @@
   <si>
     <t>Thermal efficiency</t>
   </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1879,6 +1765,12 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2327,7 +2219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2492,6 +2384,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2516,24 +2426,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2990,20 +2883,20 @@
       <c r="B2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="80" t="s">
         <v>422</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83" t="s">
         <v>423</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
     </row>
     <row r="3" spans="1:16" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
@@ -3563,9 +3456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9F640B-5EF1-49D4-AF1E-498E5DBF4C83}">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3628,7 +3521,7 @@
       <c r="O1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="68" t="s">
         <v>495</v>
       </c>
       <c r="Q1" s="48" t="s">
@@ -3726,7 +3619,7 @@
       <c r="O2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="77" t="s">
+      <c r="P2" s="69" t="s">
         <v>375</v>
       </c>
       <c r="Q2" s="49" t="s">
@@ -3818,8 +3711,8 @@
       <c r="O3" s="50">
         <v>319.5</v>
       </c>
-      <c r="P3" s="78" t="s">
-        <v>496</v>
+      <c r="P3" s="70">
+        <v>0.32500000000000001</v>
       </c>
       <c r="Q3" s="50">
         <v>60</v>
@@ -3863,7 +3756,7 @@
       <c r="AD3" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE3" s="81">
+      <c r="AE3" s="73">
         <v>1</v>
       </c>
       <c r="AF3" s="50">
@@ -3910,8 +3803,8 @@
       <c r="O4" s="50">
         <v>326</v>
       </c>
-      <c r="P4" s="78" t="s">
-        <v>497</v>
+      <c r="P4" s="70">
+        <v>0.3</v>
       </c>
       <c r="Q4" s="50">
         <v>40</v>
@@ -3955,7 +3848,7 @@
       <c r="AD4" s="50">
         <v>5</v>
       </c>
-      <c r="AE4" s="81">
+      <c r="AE4" s="73">
         <v>1</v>
       </c>
       <c r="AF4" s="50">
@@ -4002,8 +3895,8 @@
       <c r="O5" s="50">
         <v>321</v>
       </c>
-      <c r="P5" s="78" t="s">
-        <v>498</v>
+      <c r="P5" s="70">
+        <v>0.30499999999999999</v>
       </c>
       <c r="Q5" s="50">
         <v>80</v>
@@ -4047,7 +3940,7 @@
       <c r="AD5" s="50">
         <v>10</v>
       </c>
-      <c r="AE5" s="81">
+      <c r="AE5" s="73">
         <v>1</v>
       </c>
       <c r="AF5" s="50">
@@ -4094,8 +3987,8 @@
       <c r="O6" s="50">
         <v>316</v>
       </c>
-      <c r="P6" s="78" t="s">
-        <v>499</v>
+      <c r="P6" s="70">
+        <v>0.308</v>
       </c>
       <c r="Q6" s="50">
         <v>60</v>
@@ -4139,7 +4032,7 @@
       <c r="AD6" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE6" s="81">
+      <c r="AE6" s="73">
         <v>1</v>
       </c>
       <c r="AF6" s="50">
@@ -4186,8 +4079,8 @@
       <c r="O7" s="50">
         <v>321</v>
       </c>
-      <c r="P7" s="78" t="s">
-        <v>500</v>
+      <c r="P7" s="70">
+        <v>0.28899999999999998</v>
       </c>
       <c r="Q7" s="50">
         <v>60</v>
@@ -4231,7 +4124,7 @@
       <c r="AD7" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE7" s="81">
+      <c r="AE7" s="73">
         <v>1</v>
       </c>
       <c r="AF7" s="50">
@@ -4278,8 +4171,8 @@
       <c r="O8" s="50">
         <v>120</v>
       </c>
-      <c r="P8" s="78" t="s">
-        <v>501</v>
+      <c r="P8" s="70">
+        <v>0</v>
       </c>
       <c r="Q8" s="50">
         <v>60</v>
@@ -4323,7 +4216,7 @@
       <c r="AD8" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE8" s="81">
+      <c r="AE8" s="73">
         <v>0</v>
       </c>
       <c r="AF8" s="50">
@@ -4370,8 +4263,8 @@
       <c r="O9" s="50">
         <v>288</v>
       </c>
-      <c r="P9" s="78" t="s">
-        <v>502</v>
+      <c r="P9" s="70">
+        <v>0.32200000000000001</v>
       </c>
       <c r="Q9" s="50">
         <v>60</v>
@@ -4415,7 +4308,7 @@
       <c r="AD9" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE9" s="81">
+      <c r="AE9" s="73">
         <v>1</v>
       </c>
       <c r="AF9" s="50">
@@ -4462,8 +4355,8 @@
       <c r="O10" s="50">
         <v>325</v>
       </c>
-      <c r="P10" s="78" t="s">
-        <v>503</v>
+      <c r="P10" s="70">
+        <v>0.34599999999999997</v>
       </c>
       <c r="Q10" s="50">
         <v>60</v>
@@ -4507,7 +4400,7 @@
       <c r="AD10" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE10" s="81">
+      <c r="AE10" s="73">
         <v>3</v>
       </c>
       <c r="AF10" s="50">
@@ -4554,8 +4447,8 @@
       <c r="O11" s="50">
         <v>285</v>
       </c>
-      <c r="P11" s="78" t="s">
-        <v>504</v>
+      <c r="P11" s="70">
+        <v>0.33300000000000002</v>
       </c>
       <c r="Q11" s="50">
         <v>60</v>
@@ -4599,7 +4492,7 @@
       <c r="AD11" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE11" s="81">
+      <c r="AE11" s="73">
         <v>1</v>
       </c>
       <c r="AF11" s="50">
@@ -4646,8 +4539,8 @@
       <c r="O12" s="50">
         <v>322</v>
       </c>
-      <c r="P12" s="78" t="s">
-        <v>505</v>
+      <c r="P12" s="70">
+        <v>0.29299999999999998</v>
       </c>
       <c r="Q12" s="50">
         <v>60</v>
@@ -4691,7 +4584,7 @@
       <c r="AD12" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE12" s="81">
+      <c r="AE12" s="73">
         <v>1</v>
       </c>
       <c r="AF12" s="50">
@@ -4738,8 +4631,8 @@
       <c r="O13" s="50">
         <v>312</v>
       </c>
-      <c r="P13" s="78" t="s">
-        <v>506</v>
+      <c r="P13" s="70">
+        <v>0.30099999999999999</v>
       </c>
       <c r="Q13" s="50">
         <v>40</v>
@@ -4783,7 +4676,7 @@
       <c r="AD13" s="50">
         <v>5</v>
       </c>
-      <c r="AE13" s="81">
+      <c r="AE13" s="73">
         <v>1</v>
       </c>
       <c r="AF13" s="50">
@@ -4830,8 +4723,8 @@
       <c r="O14" s="50">
         <v>324</v>
       </c>
-      <c r="P14" s="78" t="s">
-        <v>507</v>
+      <c r="P14" s="70">
+        <v>0.28100000000000003</v>
       </c>
       <c r="Q14" s="50">
         <v>60</v>
@@ -4875,7 +4768,7 @@
       <c r="AD14" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE14" s="81">
+      <c r="AE14" s="73">
         <v>1</v>
       </c>
       <c r="AF14" s="50">
@@ -4922,8 +4815,8 @@
       <c r="O15" s="50">
         <v>345</v>
       </c>
-      <c r="P15" s="78" t="s">
-        <v>508</v>
+      <c r="P15" s="70">
+        <v>0.35</v>
       </c>
       <c r="Q15" s="50">
         <v>60</v>
@@ -4967,7 +4860,7 @@
       <c r="AD15" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE15" s="81">
+      <c r="AE15" s="73">
         <v>3</v>
       </c>
       <c r="AF15" s="50">
@@ -5014,8 +4907,8 @@
       <c r="O16" s="50">
         <v>193</v>
       </c>
-      <c r="P16" s="78" t="s">
-        <v>501</v>
+      <c r="P16" s="70">
+        <v>0</v>
       </c>
       <c r="Q16" s="50">
         <v>60</v>
@@ -5059,7 +4952,7 @@
       <c r="AD16" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE16" s="81">
+      <c r="AE16" s="73">
         <v>0</v>
       </c>
       <c r="AF16" s="50">
@@ -5106,8 +4999,8 @@
       <c r="O17" s="50">
         <v>102</v>
       </c>
-      <c r="P17" s="78" t="s">
-        <v>501</v>
+      <c r="P17" s="70">
+        <v>0</v>
       </c>
       <c r="Q17" s="50">
         <v>60</v>
@@ -5151,7 +5044,7 @@
       <c r="AD17" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE17" s="81">
+      <c r="AE17" s="73">
         <v>0</v>
       </c>
       <c r="AF17" s="50">
@@ -5198,8 +5091,8 @@
       <c r="O18" s="50">
         <v>286</v>
       </c>
-      <c r="P18" s="78" t="s">
-        <v>509</v>
+      <c r="P18" s="70">
+        <v>0.27800000000000002</v>
       </c>
       <c r="Q18" s="50">
         <v>80</v>
@@ -5243,7 +5136,7 @@
       <c r="AD18" s="50">
         <v>10</v>
       </c>
-      <c r="AE18" s="81">
+      <c r="AE18" s="73">
         <v>1</v>
       </c>
       <c r="AF18" s="50">
@@ -5290,13 +5183,13 @@
       <c r="O19" s="50">
         <v>307</v>
       </c>
-      <c r="P19" s="78" t="s">
-        <v>510</v>
+      <c r="P19" s="70">
+        <v>0</v>
       </c>
       <c r="Q19" s="50">
         <v>60</v>
       </c>
-      <c r="R19" s="50">
+      <c r="R19" s="84">
         <v>4</v>
       </c>
       <c r="S19" s="50">
@@ -5335,7 +5228,7 @@
       <c r="AD19" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE19" s="81">
+      <c r="AE19" s="73">
         <v>1</v>
       </c>
       <c r="AF19" s="50">
@@ -5382,8 +5275,8 @@
       <c r="O20" s="50">
         <v>310</v>
       </c>
-      <c r="P20" s="78" t="s">
-        <v>511</v>
+      <c r="P20" s="70">
+        <v>0.313</v>
       </c>
       <c r="Q20" s="50">
         <v>70</v>
@@ -5427,7 +5320,7 @@
       <c r="AD20" s="50">
         <v>8.75</v>
       </c>
-      <c r="AE20" s="81">
+      <c r="AE20" s="73">
         <v>1</v>
       </c>
       <c r="AF20" s="50">
@@ -5474,8 +5367,8 @@
       <c r="O21" s="50">
         <v>318.89999999999998</v>
       </c>
-      <c r="P21" s="78" t="s">
-        <v>512</v>
+      <c r="P21" s="70">
+        <v>0.33900000000000002</v>
       </c>
       <c r="Q21" s="50">
         <v>60</v>
@@ -5519,7 +5412,7 @@
       <c r="AD21" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE21" s="81">
+      <c r="AE21" s="73">
         <v>3</v>
       </c>
       <c r="AF21" s="50">
@@ -5566,8 +5459,8 @@
       <c r="O22" s="50">
         <v>320.89999999999998</v>
       </c>
-      <c r="P22" s="78" t="s">
-        <v>510</v>
+      <c r="P22" s="70">
+        <v>0.315</v>
       </c>
       <c r="Q22" s="50">
         <v>80</v>
@@ -5611,7 +5504,7 @@
       <c r="AD22" s="50">
         <v>10</v>
       </c>
-      <c r="AE22" s="81">
+      <c r="AE22" s="73">
         <v>1</v>
       </c>
       <c r="AF22" s="50">
@@ -5658,8 +5551,8 @@
       <c r="O23" s="50">
         <v>286</v>
       </c>
-      <c r="P23" s="78" t="s">
-        <v>509</v>
+      <c r="P23" s="70">
+        <v>0.27800000000000002</v>
       </c>
       <c r="Q23" s="50">
         <v>80</v>
@@ -5703,7 +5596,7 @@
       <c r="AD23" s="50">
         <v>10</v>
       </c>
-      <c r="AE23" s="81">
+      <c r="AE23" s="73">
         <v>1</v>
       </c>
       <c r="AF23" s="50">
@@ -5750,8 +5643,8 @@
       <c r="O24" s="50">
         <v>98</v>
       </c>
-      <c r="P24" s="78" t="s">
-        <v>501</v>
+      <c r="P24" s="70">
+        <v>0</v>
       </c>
       <c r="Q24" s="50">
         <v>60</v>
@@ -5795,7 +5688,7 @@
       <c r="AD24" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE24" s="81">
+      <c r="AE24" s="73">
         <v>0</v>
       </c>
       <c r="AF24" s="50">
@@ -5842,8 +5735,8 @@
       <c r="O25" s="50">
         <v>280</v>
       </c>
-      <c r="P25" s="78" t="s">
-        <v>501</v>
+      <c r="P25" s="70">
+        <v>0</v>
       </c>
       <c r="Q25" s="50">
         <v>60</v>
@@ -5887,7 +5780,7 @@
       <c r="AD25" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE25" s="81">
+      <c r="AE25" s="73">
         <v>0</v>
       </c>
       <c r="AF25" s="50">
@@ -5934,8 +5827,8 @@
       <c r="O26" s="50">
         <v>313</v>
       </c>
-      <c r="P26" s="78" t="s">
-        <v>513</v>
+      <c r="P26" s="70">
+        <v>0.30299999999999999</v>
       </c>
       <c r="Q26" s="50">
         <v>60</v>
@@ -5979,7 +5872,7 @@
       <c r="AD26" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE26" s="81">
+      <c r="AE26" s="73">
         <v>1</v>
       </c>
       <c r="AF26" s="50">
@@ -6026,8 +5919,8 @@
       <c r="O27" s="50">
         <v>300</v>
       </c>
-      <c r="P27" s="78" t="s">
-        <v>504</v>
+      <c r="P27" s="70">
+        <v>0.33300000000000002</v>
       </c>
       <c r="Q27" s="50">
         <v>60</v>
@@ -6071,7 +5964,7 @@
       <c r="AD27" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE27" s="81">
+      <c r="AE27" s="73">
         <v>1</v>
       </c>
       <c r="AF27" s="50">
@@ -6118,8 +6011,8 @@
       <c r="O28" s="50">
         <v>750</v>
       </c>
-      <c r="P28" s="78" t="s">
-        <v>514</v>
+      <c r="P28" s="70">
+        <v>0.4</v>
       </c>
       <c r="Q28" s="50">
         <v>40</v>
@@ -6163,7 +6056,7 @@
       <c r="AD28" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE28" s="81">
+      <c r="AE28" s="73">
         <v>9</v>
       </c>
       <c r="AF28" s="50">
@@ -6210,8 +6103,8 @@
       <c r="O29">
         <v>750</v>
       </c>
-      <c r="P29" s="78" t="s">
-        <v>515</v>
+      <c r="P29" s="70">
+        <v>0.42</v>
       </c>
       <c r="Q29">
         <v>60</v>
@@ -6255,7 +6148,7 @@
       <c r="AD29" s="50">
         <v>5</v>
       </c>
-      <c r="AE29" s="81">
+      <c r="AE29" s="73">
         <v>9</v>
       </c>
       <c r="AF29" s="50">
@@ -6302,8 +6195,8 @@
       <c r="O30">
         <v>700</v>
       </c>
-      <c r="P30" s="78" t="s">
-        <v>514</v>
+      <c r="P30" s="70">
+        <v>0.4</v>
       </c>
       <c r="Q30">
         <v>20</v>
@@ -6347,7 +6240,7 @@
       <c r="AD30" s="50">
         <v>5</v>
       </c>
-      <c r="AE30" s="81">
+      <c r="AE30" s="73">
         <v>9</v>
       </c>
       <c r="AF30" s="50">
@@ -6394,8 +6287,8 @@
       <c r="O31">
         <v>900</v>
       </c>
-      <c r="P31" s="78" t="s">
-        <v>514</v>
+      <c r="P31" s="70">
+        <v>0.4</v>
       </c>
       <c r="Q31">
         <v>60</v>
@@ -6439,7 +6332,7 @@
       <c r="AD31" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE31" s="81">
+      <c r="AE31" s="73">
         <v>9</v>
       </c>
       <c r="AF31" s="50">
@@ -6486,8 +6379,8 @@
       <c r="O32">
         <v>850</v>
       </c>
-      <c r="P32" s="78" t="s">
-        <v>501</v>
+      <c r="P32" s="70">
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>60</v>
@@ -6531,7 +6424,7 @@
       <c r="AD32" s="50">
         <v>2.5</v>
       </c>
-      <c r="AE32" s="81">
+      <c r="AE32" s="73">
         <v>0</v>
       </c>
       <c r="AF32" s="50">
@@ -6578,8 +6471,8 @@
       <c r="O33">
         <v>950</v>
       </c>
-      <c r="P33" s="79" t="s">
-        <v>516</v>
+      <c r="P33" s="71">
+        <v>0.5</v>
       </c>
       <c r="Q33">
         <v>60</v>
@@ -6623,7 +6516,7 @@
       <c r="AD33" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE33" s="82">
+      <c r="AE33" s="74">
         <v>10</v>
       </c>
       <c r="AF33" s="50">
@@ -6670,8 +6563,8 @@
       <c r="O34">
         <v>800</v>
       </c>
-      <c r="P34" s="78" t="s">
-        <v>517</v>
+      <c r="P34" s="70">
+        <v>0.34300000000000003</v>
       </c>
       <c r="Q34">
         <v>60</v>
@@ -6715,7 +6608,7 @@
       <c r="AD34" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE34" s="81">
+      <c r="AE34" s="73">
         <v>3</v>
       </c>
       <c r="AF34" s="50">
@@ -6762,8 +6655,8 @@
       <c r="O35">
         <v>1200</v>
       </c>
-      <c r="P35" s="78" t="s">
-        <v>518</v>
+      <c r="P35" s="70">
+        <v>0.435</v>
       </c>
       <c r="Q35">
         <v>40</v>
@@ -6807,7 +6700,7 @@
       <c r="AD35" s="50">
         <v>10</v>
       </c>
-      <c r="AE35" s="81">
+      <c r="AE35" s="73">
         <v>9</v>
       </c>
       <c r="AF35" s="50">
@@ -6854,8 +6747,8 @@
       <c r="O36">
         <v>900</v>
       </c>
-      <c r="P36" s="78" t="s">
-        <v>519</v>
+      <c r="P36" s="70">
+        <v>0.48</v>
       </c>
       <c r="Q36">
         <v>40</v>
@@ -6899,7 +6792,7 @@
       <c r="AD36" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE36" s="81">
+      <c r="AE36" s="73">
         <v>10</v>
       </c>
       <c r="AF36" s="50">
@@ -6946,8 +6839,8 @@
       <c r="O37">
         <v>750</v>
       </c>
-      <c r="P37" s="78" t="s">
-        <v>520</v>
+      <c r="P37" s="70">
+        <v>0.44900000000000001</v>
       </c>
       <c r="Q37">
         <v>40</v>
@@ -6991,7 +6884,7 @@
       <c r="AD37" s="50">
         <v>10</v>
       </c>
-      <c r="AE37" s="81">
+      <c r="AE37" s="73">
         <v>9</v>
       </c>
       <c r="AF37" s="50">
@@ -7038,8 +6931,8 @@
       <c r="O38">
         <v>850</v>
       </c>
-      <c r="P38" s="79" t="s">
-        <v>521</v>
+      <c r="P38" s="71">
+        <v>0.53</v>
       </c>
       <c r="Q38">
         <v>60</v>
@@ -7083,7 +6976,7 @@
       <c r="AD38" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE38" s="82">
+      <c r="AE38" s="74">
         <v>10</v>
       </c>
       <c r="AF38" s="50">
@@ -7130,8 +7023,8 @@
       <c r="O39">
         <v>800</v>
       </c>
-      <c r="P39" s="78" t="s">
-        <v>522</v>
+      <c r="P39" s="70">
+        <v>0.44400000000000001</v>
       </c>
       <c r="Q39">
         <v>60</v>
@@ -7175,7 +7068,7 @@
       <c r="AD39" s="50">
         <v>3.75</v>
       </c>
-      <c r="AE39" s="81">
+      <c r="AE39" s="73">
         <v>9</v>
       </c>
       <c r="AF39" s="50">
@@ -7222,8 +7115,8 @@
       <c r="O40">
         <v>750</v>
       </c>
-      <c r="P40" s="80" t="s">
-        <v>523</v>
+      <c r="P40" s="72">
+        <v>0.88600000000000001</v>
       </c>
       <c r="Q40">
         <v>60</v>
@@ -7267,7 +7160,7 @@
       <c r="AD40" s="50">
         <v>7</v>
       </c>
-      <c r="AE40" s="83">
+      <c r="AE40" s="75">
         <v>10</v>
       </c>
       <c r="AF40" s="50">
@@ -7314,8 +7207,8 @@
       <c r="O41">
         <v>750</v>
       </c>
-      <c r="P41" s="78" t="s">
-        <v>524</v>
+      <c r="P41" s="70">
+        <v>0.41299999999999998</v>
       </c>
       <c r="Q41">
         <v>80</v>
@@ -7359,7 +7252,7 @@
       <c r="AD41" s="50">
         <v>5</v>
       </c>
-      <c r="AE41" s="81">
+      <c r="AE41" s="73">
         <v>9</v>
       </c>
       <c r="AF41" s="50">
@@ -7406,8 +7299,8 @@
       <c r="O42">
         <v>750</v>
       </c>
-      <c r="P42" s="78" t="s">
-        <v>515</v>
+      <c r="P42" s="70">
+        <v>0.42</v>
       </c>
       <c r="Q42">
         <v>40</v>
@@ -7451,7 +7344,7 @@
       <c r="AD42" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE42" s="81">
+      <c r="AE42" s="73">
         <v>9</v>
       </c>
       <c r="AF42" s="50">
@@ -7498,8 +7391,8 @@
       <c r="O43">
         <v>700</v>
       </c>
-      <c r="P43" s="78" t="s">
-        <v>525</v>
+      <c r="P43" s="70">
+        <v>0.42399999999999999</v>
       </c>
       <c r="Q43">
         <v>20</v>
@@ -7543,7 +7436,7 @@
       <c r="AD43" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE43" s="81">
+      <c r="AE43" s="73">
         <v>9</v>
       </c>
       <c r="AF43" s="50">
@@ -7590,8 +7483,8 @@
       <c r="O44">
         <v>850</v>
       </c>
-      <c r="P44" s="78" t="s">
-        <v>526</v>
+      <c r="P44" s="70">
+        <v>0.40500000000000003</v>
       </c>
       <c r="Q44">
         <v>20</v>
@@ -7635,7 +7528,7 @@
       <c r="AD44" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE44" s="81">
+      <c r="AE44" s="73">
         <v>9</v>
       </c>
       <c r="AF44" s="50">
@@ -7682,8 +7575,8 @@
       <c r="O45">
         <v>650</v>
       </c>
-      <c r="P45" s="78" t="s">
-        <v>527</v>
+      <c r="P45" s="70">
+        <v>0.47399999999999998</v>
       </c>
       <c r="Q45">
         <v>80</v>
@@ -7727,7 +7620,7 @@
       <c r="AD45" s="50">
         <v>10</v>
       </c>
-      <c r="AE45" s="81">
+      <c r="AE45" s="73">
         <v>10</v>
       </c>
       <c r="AF45" s="50">
@@ -7774,8 +7667,8 @@
       <c r="O46">
         <v>510</v>
       </c>
-      <c r="P46" s="78" t="s">
-        <v>508</v>
+      <c r="P46" s="70">
+        <v>0.35</v>
       </c>
       <c r="Q46">
         <v>60</v>
@@ -7819,7 +7712,7 @@
       <c r="AD46" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE46" s="81">
+      <c r="AE46" s="73">
         <v>3</v>
       </c>
       <c r="AF46" s="50">
@@ -7866,8 +7759,8 @@
       <c r="O47">
         <v>510</v>
       </c>
-      <c r="P47" s="78" t="s">
-        <v>504</v>
+      <c r="P47" s="70">
+        <v>0.33300000000000002</v>
       </c>
       <c r="Q47">
         <v>60</v>
@@ -7911,7 +7804,7 @@
       <c r="AD47" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE47" s="81">
+      <c r="AE47" s="73">
         <v>1</v>
       </c>
       <c r="AF47" s="50">
@@ -7958,8 +7851,8 @@
       <c r="O48">
         <v>350</v>
       </c>
-      <c r="P48" s="78" t="s">
-        <v>504</v>
+      <c r="P48" s="70">
+        <v>0.33300000000000002</v>
       </c>
       <c r="Q48">
         <v>40</v>
@@ -8003,7 +7896,7 @@
       <c r="AD48" s="50">
         <v>5</v>
       </c>
-      <c r="AE48" s="81">
+      <c r="AE48" s="73">
         <v>1</v>
       </c>
       <c r="AF48" s="50">
@@ -8050,8 +7943,8 @@
       <c r="O49">
         <v>535</v>
       </c>
-      <c r="P49" s="78" t="s">
-        <v>528</v>
+      <c r="P49" s="70">
+        <v>0.42899999999999999</v>
       </c>
       <c r="Q49">
         <v>30</v>
@@ -8095,7 +7988,7 @@
       <c r="AD49" s="50">
         <v>3.75</v>
       </c>
-      <c r="AE49" s="81">
+      <c r="AE49" s="73">
         <v>9</v>
       </c>
       <c r="AF49" s="50">
@@ -8142,8 +8035,8 @@
       <c r="O50">
         <v>530</v>
       </c>
-      <c r="P50" s="78" t="s">
-        <v>529</v>
+      <c r="P50" s="70">
+        <v>0.41699999999999998</v>
       </c>
       <c r="Q50">
         <v>60</v>
@@ -8187,7 +8080,7 @@
       <c r="AD50" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE50" s="81">
+      <c r="AE50" s="73">
         <v>9</v>
       </c>
       <c r="AF50" s="50">
@@ -8234,8 +8127,8 @@
       <c r="O51">
         <v>485</v>
       </c>
-      <c r="P51" s="78" t="s">
-        <v>530</v>
+      <c r="P51" s="70">
+        <v>0.35699999999999998</v>
       </c>
       <c r="Q51">
         <v>60</v>
@@ -8279,7 +8172,7 @@
       <c r="AD51" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE51" s="81">
+      <c r="AE51" s="73">
         <v>5</v>
       </c>
       <c r="AF51" s="50">
@@ -8326,8 +8219,8 @@
       <c r="O52">
         <v>550</v>
       </c>
-      <c r="P52" s="78" t="s">
-        <v>531</v>
+      <c r="P52" s="70">
+        <v>0.39300000000000002</v>
       </c>
       <c r="Q52">
         <v>28</v>
@@ -8371,7 +8264,7 @@
       <c r="AD52" s="50">
         <v>3.5</v>
       </c>
-      <c r="AE52" s="81">
+      <c r="AE52" s="73">
         <v>9</v>
       </c>
       <c r="AF52" s="50">
@@ -8418,8 +8311,8 @@
       <c r="O53">
         <v>675</v>
       </c>
-      <c r="P53" s="78" t="s">
-        <v>524</v>
+      <c r="P53" s="70">
+        <v>0.41299999999999998</v>
       </c>
       <c r="Q53" t="s">
         <v>266</v>
@@ -8463,7 +8356,7 @@
       <c r="AD53" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE53" s="81">
+      <c r="AE53" s="73">
         <v>9</v>
       </c>
       <c r="AF53" s="50">
@@ -8507,8 +8400,8 @@
       <c r="O54">
         <v>750</v>
       </c>
-      <c r="P54" s="79" t="s">
-        <v>516</v>
+      <c r="P54" s="71">
+        <v>0.5</v>
       </c>
       <c r="Q54" t="s">
         <v>274</v>
@@ -8552,7 +8445,7 @@
       <c r="AD54" s="50">
         <v>5</v>
       </c>
-      <c r="AE54" s="82">
+      <c r="AE54" s="74">
         <v>10</v>
       </c>
       <c r="AF54" s="50">
@@ -8599,8 +8492,8 @@
       <c r="O55">
         <v>800</v>
       </c>
-      <c r="P55" s="78" t="s">
-        <v>508</v>
+      <c r="P55" s="70">
+        <v>0.35</v>
       </c>
       <c r="Q55">
         <v>60</v>
@@ -8644,7 +8537,7 @@
       <c r="AD55" s="50">
         <v>5</v>
       </c>
-      <c r="AE55" s="81">
+      <c r="AE55" s="73">
         <v>3</v>
       </c>
       <c r="AF55" s="50">
@@ -8691,8 +8584,8 @@
       <c r="O56">
         <v>700</v>
       </c>
-      <c r="P56" s="79" t="s">
-        <v>516</v>
+      <c r="P56" s="71">
+        <v>0.5</v>
       </c>
       <c r="Q56">
         <v>56</v>
@@ -8736,7 +8629,7 @@
       <c r="AD56" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE56" s="82">
+      <c r="AE56" s="74">
         <v>10</v>
       </c>
       <c r="AF56" s="50">
@@ -8783,8 +8676,8 @@
       <c r="O57">
         <v>625</v>
       </c>
-      <c r="P57" s="78" t="s">
-        <v>514</v>
+      <c r="P57" s="70">
+        <v>0.4</v>
       </c>
       <c r="Q57">
         <v>60</v>
@@ -8828,7 +8721,7 @@
       <c r="AD57" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE57" s="81">
+      <c r="AE57" s="73">
         <v>9</v>
       </c>
       <c r="AF57" s="50">
@@ -8872,8 +8765,8 @@
       <c r="O58">
         <v>650</v>
       </c>
-      <c r="P58" s="78" t="s">
-        <v>529</v>
+      <c r="P58" s="70">
+        <v>0.41699999999999998</v>
       </c>
       <c r="R58" s="50">
         <v>3</v>
@@ -8914,7 +8807,7 @@
       <c r="AD58" s="50">
         <v>4</v>
       </c>
-      <c r="AE58" s="81">
+      <c r="AE58" s="73">
         <v>9</v>
       </c>
       <c r="AF58" s="50">
@@ -8961,8 +8854,8 @@
       <c r="O59">
         <v>704</v>
       </c>
-      <c r="P59" s="78" t="s">
-        <v>501</v>
+      <c r="P59" s="70">
+        <v>0</v>
       </c>
       <c r="Q59">
         <v>80</v>
@@ -9006,7 +8899,7 @@
       <c r="AD59" s="50">
         <v>0.625</v>
       </c>
-      <c r="AE59" s="81">
+      <c r="AE59" s="73">
         <v>0</v>
       </c>
       <c r="AF59" s="50">
@@ -9053,8 +8946,8 @@
       <c r="O60">
         <v>704</v>
       </c>
-      <c r="P60" s="78" t="s">
-        <v>501</v>
+      <c r="P60" s="70">
+        <v>0</v>
       </c>
       <c r="Q60">
         <v>30</v>
@@ -9098,7 +8991,7 @@
       <c r="AD60" s="50">
         <v>5</v>
       </c>
-      <c r="AE60" s="81">
+      <c r="AE60" s="73">
         <v>0</v>
       </c>
       <c r="AF60" s="50">
@@ -9145,8 +9038,8 @@
       <c r="O61">
         <v>700</v>
       </c>
-      <c r="P61" s="78" t="s">
-        <v>514</v>
+      <c r="P61" s="70">
+        <v>0.4</v>
       </c>
       <c r="Q61">
         <v>60</v>
@@ -9190,7 +9083,7 @@
       <c r="AD61" s="50">
         <v>7.5</v>
       </c>
-      <c r="AE61" s="81">
+      <c r="AE61" s="73">
         <v>9</v>
       </c>
       <c r="AF61" s="50">
@@ -9237,8 +9130,8 @@
       <c r="O62">
         <v>650</v>
       </c>
-      <c r="P62" s="78" t="s">
-        <v>532</v>
+      <c r="P62" s="70">
+        <v>0.438</v>
       </c>
       <c r="Q62" t="s">
         <v>321</v>
@@ -9282,7 +9175,7 @@
       <c r="AD62" s="50">
         <v>2.5</v>
       </c>
-      <c r="AE62" s="81">
+      <c r="AE62" s="73">
         <v>9</v>
       </c>
       <c r="AF62" s="50">
@@ -9329,8 +9222,8 @@
       <c r="O63">
         <v>670</v>
       </c>
-      <c r="P63" s="78" t="s">
-        <v>514</v>
+      <c r="P63" s="70">
+        <v>0.4</v>
       </c>
       <c r="Q63" t="s">
         <v>327</v>
@@ -9374,7 +9267,7 @@
       <c r="AD63" s="50">
         <v>1.5</v>
       </c>
-      <c r="AE63" s="81">
+      <c r="AE63" s="73">
         <v>9</v>
       </c>
       <c r="AF63" s="50">
@@ -9421,8 +9314,8 @@
       <c r="O64">
         <v>700</v>
       </c>
-      <c r="P64" s="78" t="s">
-        <v>501</v>
+      <c r="P64" s="70">
+        <v>0</v>
       </c>
       <c r="Q64">
         <v>60</v>
@@ -9466,7 +9359,7 @@
       <c r="AD64" s="50">
         <v>2.5</v>
       </c>
-      <c r="AE64" s="81">
+      <c r="AE64" s="73">
         <v>0</v>
       </c>
       <c r="AF64" s="50">
@@ -9513,8 +9406,8 @@
       <c r="O65">
         <v>795</v>
       </c>
-      <c r="P65" s="78" t="s">
-        <v>533</v>
+      <c r="P65" s="70">
+        <v>0.25</v>
       </c>
       <c r="Q65">
         <v>60</v>
@@ -9558,7 +9451,7 @@
       <c r="AD65" s="50">
         <v>2.5</v>
       </c>
-      <c r="AE65" s="81">
+      <c r="AE65" s="73">
         <v>1</v>
       </c>
       <c r="AF65" s="50">
@@ -9602,30 +9495,30 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9646,30 +9539,30 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9690,30 +9583,30 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9764,17 +9657,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>346</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="78" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="78" t="s">
         <v>348</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="78" t="s">
         <v>349</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -9782,11 +9675,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="2" t="s">
         <v>351</v>
       </c>
@@ -9922,17 +9815,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="78" t="s">
         <v>379</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="78" t="s">
         <v>380</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="78" t="s">
         <v>381</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="78" t="s">
         <v>382</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -9940,11 +9833,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="2" t="s">
         <v>384</v>
       </c>
@@ -9986,30 +9879,30 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="78" t="s">
         <v>395</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="78" t="s">
         <v>396</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="78" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="78" t="s">
         <v>398</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="78" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
@@ -10030,7 +9923,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="79" t="s">
         <v>405</v>
       </c>
       <c r="B18" s="24"/>
@@ -10051,7 +9944,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="24"/>
       <c r="C19" s="18" t="s">
         <v>411</v>
@@ -10067,7 +9960,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="71"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="24"/>
       <c r="C20" s="18" t="s">
         <v>415</v>
@@ -10083,7 +9976,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="71"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="24"/>
       <c r="C21" s="18" t="s">
         <v>417</v>
